--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -159,6 +159,15 @@
   </si>
   <si>
     <t>UIGroupSubConfig@UIConfig.xlsx</t>
+  </si>
+  <si>
+    <t>ExpConfigCategory</t>
+  </si>
+  <si>
+    <t>ExpConfig</t>
+  </si>
+  <si>
+    <t>ExpConfig.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1133,7 @@
   <dimension ref="A1:K987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1378,7 +1387,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="4" t="b">
-        <f t="shared" si="1"/>
+        <f>IF(C9&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1396,16 +1405,19 @@
     </row>
     <row r="10" ht="16.5" spans="1:11">
       <c r="A10" s="4"/>
-      <c r="B10" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C10&lt;&gt;"",_xlfn.CONCAT(C10,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="str">
+      <c r="B10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E10" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1413,13 +1425,13 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>ExpConfigCategory</v>
       </c>
     </row>
     <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C11&lt;&gt;"",_xlfn.CONCAT(C11,"Category"),"")</f>
         <v/>
       </c>
       <c r="C11" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="22830" windowHeight="9495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>##var</t>
   </si>
@@ -168,6 +168,18 @@
   </si>
   <si>
     <t>ExpConfig.xlsx</t>
+  </si>
+  <si>
+    <t>RandomNameConfigCategory</t>
+  </si>
+  <si>
+    <t>RandomNameConfig</t>
+  </si>
+  <si>
+    <t>RandomNameConfig.xlsx</t>
+  </si>
+  <si>
+    <t>随机姓名配置</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1145,7 @@
   <dimension ref="A1:K987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1387,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="D9" s="4" t="b">
-        <f>IF(C9&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -1430,30 +1442,37 @@
     </row>
     <row r="11" ht="16.5" spans="1:11">
       <c r="A11" s="4"/>
-      <c r="B11" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C11&lt;&gt;"",_xlfn.CONCAT(C11,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="str">
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E11" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RandomNameConfigCategory</v>
       </c>
     </row>
     <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C12&lt;&gt;"",_xlfn.CONCAT(C12,"Category"),"")</f>
         <v/>
       </c>
       <c r="C12" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22830" windowHeight="9495"/>
+    <workbookView windowWidth="23070" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -180,6 +180,21 @@
   </si>
   <si>
     <t>随机姓名配置</t>
+  </si>
+  <si>
+    <t>GlobalDataConfigCategory</t>
+  </si>
+  <si>
+    <t>GlobalDataConfig</t>
+  </si>
+  <si>
+    <t>GlobalDataConfig.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>全局配置表</t>
   </si>
 </sst>
 </file>
@@ -1144,8 +1159,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1471,30 +1486,37 @@
     </row>
     <row r="12" ht="16.5" spans="1:11">
       <c r="A12" s="4"/>
-      <c r="B12" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C12&lt;&gt;"",_xlfn.CONCAT(C12,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="str">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E12" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>GlobalDataConfigCategory</v>
       </c>
     </row>
     <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C13&lt;&gt;"",_xlfn.CONCAT(C13,"Category"),"")</f>
         <v/>
       </c>
       <c r="C13" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>##var</t>
   </si>
@@ -195,6 +195,42 @@
   </si>
   <si>
     <t>全局配置表</t>
+  </si>
+  <si>
+    <t>TaskConfigCategory</t>
+  </si>
+  <si>
+    <t>TaskConfig</t>
+  </si>
+  <si>
+    <t>TaskConfig.xlsx</t>
+  </si>
+  <si>
+    <t>任务配置表</t>
+  </si>
+  <si>
+    <t>RewardConfigCategory</t>
+  </si>
+  <si>
+    <t>RewardConfig</t>
+  </si>
+  <si>
+    <t>RewardConfig.xlsx</t>
+  </si>
+  <si>
+    <t>奖励配置表</t>
+  </si>
+  <si>
+    <t>ItemConfigCategory</t>
+  </si>
+  <si>
+    <t>ItemConfig</t>
+  </si>
+  <si>
+    <t>ItemConfig.xlsx</t>
+  </si>
+  <si>
+    <t>道具配置表</t>
   </si>
 </sst>
 </file>
@@ -1159,8 +1195,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1515,74 +1551,89 @@
     </row>
     <row r="13" ht="16.5" spans="1:11">
       <c r="A13" s="4"/>
-      <c r="B13" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C13&lt;&gt;"",_xlfn.CONCAT(C13,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="str">
+      <c r="B13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E13" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="I13" s="4" t="s">
+        <v>59</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>TaskConfigCategory</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:11">
       <c r="A14" s="4"/>
-      <c r="B14" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="str">
+      <c r="B14" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E14" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>RewardConfigCategory</v>
       </c>
     </row>
     <row r="15" ht="16.5" spans="1:11">
       <c r="A15" s="4"/>
-      <c r="B15" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="str">
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E15" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="I15" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>ItemConfigCategory</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="1:11">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C16&lt;&gt;"",_xlfn.CONCAT(C16,"Category"),"")</f>
         <v/>
       </c>
       <c r="C16" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="10080"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>##var</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>道具配置表</t>
+  </si>
+  <si>
+    <t>SubTaskConfigCategory</t>
+  </si>
+  <si>
+    <t>SubTaskConfig</t>
+  </si>
+  <si>
+    <t>SubTaskConfig.xlsx</t>
+  </si>
+  <si>
+    <t>子任务配置表</t>
   </si>
 </sst>
 </file>
@@ -1195,8 +1207,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1632,30 +1644,35 @@
     </row>
     <row r="16" ht="16.5" spans="1:11">
       <c r="A16" s="4"/>
-      <c r="B16" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C16&lt;&gt;"",_xlfn.CONCAT(C16,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4" t="str">
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E16" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SubTaskConfigCategory</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="1:11">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C17&lt;&gt;"",_xlfn.CONCAT(C17,"Category"),"")</f>
         <v/>
       </c>
       <c r="C17" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="23550" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -243,6 +243,18 @@
   </si>
   <si>
     <t>子任务配置表</t>
+  </si>
+  <si>
+    <t>PropertyConfigCategory</t>
+  </si>
+  <si>
+    <t>PropertyConfig</t>
+  </si>
+  <si>
+    <t>PropertyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>属性配置表</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1219,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1671,30 +1683,35 @@
     </row>
     <row r="17" ht="16.5" spans="1:11">
       <c r="A17" s="4"/>
-      <c r="B17" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C17&lt;&gt;"",_xlfn.CONCAT(C17,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="str">
+      <c r="B17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E17" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>74</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>PropertyConfigCategory</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="1:11">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C18&lt;&gt;"",_xlfn.CONCAT(C18,"Category"),"")</f>
         <v/>
       </c>
       <c r="C18" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -255,6 +255,18 @@
   </si>
   <si>
     <t>属性配置表</t>
+  </si>
+  <si>
+    <t>BuffConfigCategory</t>
+  </si>
+  <si>
+    <t>BuffConfig</t>
+  </si>
+  <si>
+    <t>BuffConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Buff配置表</t>
   </si>
 </sst>
 </file>
@@ -1219,8 +1231,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1710,52 +1722,48 @@
     </row>
     <row r="18" ht="16.5" spans="1:11">
       <c r="A18" s="4"/>
-      <c r="B18" s="4" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C18&lt;&gt;"",_xlfn.CONCAT(C18,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4" t="str">
+      <c r="B18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D18" s="4" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E18" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>78</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="I18" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>BuffConfigCategory</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="1:11">
       <c r="A19" s="4"/>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="K19" s="4"/>
     </row>
     <row r="20" ht="16.5" spans="1:11">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B7:B56" si="3">IF(C20&lt;&gt;"",_xlfn.CONCAT(C20,"Category"),"")</f>
         <v/>
       </c>
       <c r="C20" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250"/>
+    <workbookView windowWidth="23790" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="84">
   <si>
     <t>##var</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>Buff配置表</t>
+  </si>
+  <si>
+    <t>DailyConfigCategory</t>
+  </si>
+  <si>
+    <t>DailyConfig</t>
+  </si>
+  <si>
+    <t>DailyConfig.xlsx</t>
+  </si>
+  <si>
+    <t>日常活动配置表</t>
   </si>
 </sst>
 </file>
@@ -1232,7 +1244,7 @@
   <dimension ref="A1:K987"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1749,16 +1761,29 @@
     </row>
     <row r="19" ht="16.5" spans="1:11">
       <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="4" t="b">
+        <f>IF(C19&lt;&gt;"",TRUE,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>82</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="I19" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="20" ht="16.5" spans="1:11">
       <c r="A20" s="4"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
   <si>
     <t>##var</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>技能配置表</t>
+  </si>
+  <si>
+    <t>AchievementConfig</t>
+  </si>
+  <si>
+    <t>AchievementConfig.xlsx</t>
+  </si>
+  <si>
+    <t>成就配置表</t>
+  </si>
+  <si>
+    <t>SystemInfoConfig</t>
+  </si>
+  <si>
+    <t>SystemInfoConfig.xlsx</t>
+  </si>
+  <si>
+    <t>系统提示配置表</t>
   </si>
 </sst>
 </file>
@@ -1270,8 +1288,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="A5" sqref="$A5:$XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1858,45 +1876,59 @@
     <row r="21" ht="16.5" spans="1:11">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="str">
+        <f>IF(C21&lt;&gt;"",_xlfn.CONCAT(C21,"Category"),"")</f>
+        <v>AchievementConfigCategory</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E21" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>AchievementConfigCategory</v>
       </c>
     </row>
     <row r="22" ht="16.5" spans="1:11">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="str">
+        <v>SystemInfoConfigCategory</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E22" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
+      <c r="H22" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SystemInfoConfigCategory</v>
       </c>
     </row>
     <row r="23" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
   <si>
     <t>##var</t>
   </si>
@@ -318,6 +318,24 @@
   </si>
   <si>
     <t>系统提示配置表</t>
+  </si>
+  <si>
+    <t>SceneConfig</t>
+  </si>
+  <si>
+    <t>SceneConfig.xlsx</t>
+  </si>
+  <si>
+    <t>场景配置表</t>
+  </si>
+  <si>
+    <t>DungeonsConfig</t>
+  </si>
+  <si>
+    <t>DungeonsConfig.xlsx</t>
+  </si>
+  <si>
+    <t>地下城配置表</t>
   </si>
 </sst>
 </file>
@@ -1288,8 +1306,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1934,45 +1952,57 @@
     <row r="23" ht="16.5" spans="1:11">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="str">
+        <f>IF(C23&lt;&gt;"",_xlfn.CONCAT(C23,"Category"),"")</f>
+        <v>SceneConfigCategory</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E23" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SceneConfigCategory</v>
       </c>
     </row>
     <row r="24" ht="16.5" spans="1:11">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="str">
+        <v>DungeonsConfigCategory</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E24" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DungeonsConfigCategory</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
   <si>
     <t>##var</t>
   </si>
@@ -336,6 +336,15 @@
   </si>
   <si>
     <t>地下城配置表</t>
+  </si>
+  <si>
+    <t>BuildingConfig</t>
+  </si>
+  <si>
+    <t>BuildingConfig.xlsx</t>
+  </si>
+  <si>
+    <t>建筑配置表</t>
   </si>
 </sst>
 </file>
@@ -1306,8 +1315,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2009,22 +2018,28 @@
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6" t="str">
+        <v>BuildingConfigCategory</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E25" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
+      <c r="I25" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>BuildingConfigCategory</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>##var</t>
   </si>
@@ -345,6 +345,15 @@
   </si>
   <si>
     <t>建筑配置表</t>
+  </si>
+  <si>
+    <t>AvocationConfig</t>
+  </si>
+  <si>
+    <t>AvocationConfig.xlsx</t>
+  </si>
+  <si>
+    <t>副业配置表</t>
   </si>
 </sst>
 </file>
@@ -1315,8 +1324,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2046,22 +2055,28 @@
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6" t="str">
+        <v>AvocationConfigCategory</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E26" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>AvocationConfigCategory</v>
       </c>
     </row>
     <row r="27" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
   <si>
     <t>##var</t>
   </si>
@@ -354,6 +354,24 @@
   </si>
   <si>
     <t>副业配置表</t>
+  </si>
+  <si>
+    <t>EquipmentConfig</t>
+  </si>
+  <si>
+    <t>EquipmentConfig.xlsx</t>
+  </si>
+  <si>
+    <t>装备配置表</t>
+  </si>
+  <si>
+    <t>PropertyRandomConfig</t>
+  </si>
+  <si>
+    <t>PropertyRandomConfig.xlsx</t>
+  </si>
+  <si>
+    <t>属性随机表</t>
   </si>
 </sst>
 </file>
@@ -1324,8 +1342,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2083,44 +2101,56 @@
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="str">
+        <v>EquipmentConfigCategory</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E27" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>111</v>
+      </c>
       <c r="J27" s="6"/>
       <c r="K27" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>EquipmentConfigCategory</v>
       </c>
     </row>
     <row r="28" ht="16.5" spans="1:11">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="str">
+        <v>PropertyRandomConfigCategory</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E28" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>113</v>
+      </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>114</v>
+      </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <f>IF(B28&lt;&gt;"",B28,"")</f>
+        <v>PropertyRandomConfigCategory</v>
       </c>
     </row>
     <row r="29" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="118">
   <si>
     <t>##var</t>
   </si>
@@ -372,6 +372,15 @@
   </si>
   <si>
     <t>属性随机表</t>
+  </si>
+  <si>
+    <t>CreateRoleConfig</t>
+  </si>
+  <si>
+    <t>CreateRoleConfig.xlsx</t>
+  </si>
+  <si>
+    <t>创角初始表</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1351,8 @@
   <sheetPr/>
   <dimension ref="A1:K987"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1930,7 +1939,7 @@
     <row r="21" ht="16.5" spans="1:11">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="str">
-        <f>IF(C21&lt;&gt;"",_xlfn.CONCAT(C21,"Category"),"")</f>
+        <f t="shared" si="3"/>
         <v>AchievementConfigCategory</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1988,7 +1997,7 @@
     <row r="23" ht="16.5" spans="1:11">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="str">
-        <f>IF(C23&lt;&gt;"",_xlfn.CONCAT(C23,"Category"),"")</f>
+        <f t="shared" si="3"/>
         <v>SceneConfigCategory</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2149,7 +2158,7 @@
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="6" t="str">
-        <f>IF(B28&lt;&gt;"",B28,"")</f>
+        <f t="shared" si="2"/>
         <v>PropertyRandomConfigCategory</v>
       </c>
     </row>
@@ -2157,22 +2166,28 @@
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="str">
+        <v>CreateRoleConfigCategory</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E29" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>117</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CreateRoleConfigCategory</v>
       </c>
     </row>
     <row r="30" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -1349,10 +1349,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K987"/>
+  <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1909,7 +1909,7 @@
     <row r="20" ht="16.5" spans="1:11">
       <c r="A20" s="6"/>
       <c r="B20" s="6" t="str">
-        <f t="shared" ref="B7:B56" si="3">IF(C20&lt;&gt;"",_xlfn.CONCAT(C20,"Category"),"")</f>
+        <f>IF(C20&lt;&gt;"",_xlfn.CONCAT(C20,"Category"),"")</f>
         <v>SkillConfigCategory</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1939,7 +1939,7 @@
     <row r="21" ht="16.5" spans="1:11">
       <c r="A21" s="6"/>
       <c r="B21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C21&lt;&gt;"",_xlfn.CONCAT(C21,"Category"),"")</f>
         <v>AchievementConfigCategory</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1967,7 +1967,7 @@
     <row r="22" ht="16.5" spans="1:11">
       <c r="A22" s="6"/>
       <c r="B22" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C22&lt;&gt;"",_xlfn.CONCAT(C22,"Category"),"")</f>
         <v>SystemInfoConfigCategory</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1997,7 +1997,7 @@
     <row r="23" ht="16.5" spans="1:11">
       <c r="A23" s="6"/>
       <c r="B23" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C23&lt;&gt;"",_xlfn.CONCAT(C23,"Category"),"")</f>
         <v>SceneConfigCategory</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2025,7 +2025,7 @@
     <row r="24" ht="16.5" spans="1:11">
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C24&lt;&gt;"",_xlfn.CONCAT(C24,"Category"),"")</f>
         <v>DungeonsConfigCategory</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -2053,7 +2053,7 @@
     <row r="25" ht="16.5" spans="1:11">
       <c r="A25" s="6"/>
       <c r="B25" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C25&lt;&gt;"",_xlfn.CONCAT(C25,"Category"),"")</f>
         <v>BuildingConfigCategory</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -2081,7 +2081,7 @@
     <row r="26" ht="16.5" spans="1:11">
       <c r="A26" s="6"/>
       <c r="B26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C26&lt;&gt;"",_xlfn.CONCAT(C26,"Category"),"")</f>
         <v>AvocationConfigCategory</v>
       </c>
       <c r="C26" s="6" t="s">
@@ -2109,7 +2109,7 @@
     <row r="27" ht="16.5" spans="1:11">
       <c r="A27" s="6"/>
       <c r="B27" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C27&lt;&gt;"",_xlfn.CONCAT(C27,"Category"),"")</f>
         <v>EquipmentConfigCategory</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -2137,7 +2137,7 @@
     <row r="28" ht="16.5" spans="1:11">
       <c r="A28" s="6"/>
       <c r="B28" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C28&lt;&gt;"",_xlfn.CONCAT(C28,"Category"),"")</f>
         <v>PropertyRandomConfigCategory</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -2165,7 +2165,7 @@
     <row r="29" ht="16.5" spans="1:11">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(C29&lt;&gt;"",_xlfn.CONCAT(C29,"Category"),"")</f>
         <v>CreateRoleConfigCategory</v>
       </c>
       <c r="C29" s="6" t="s">
@@ -2193,12 +2193,12 @@
     <row r="30" ht="16.5" spans="1:11">
       <c r="A30" s="6"/>
       <c r="B30" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B30:B55" si="3">IF(C30&lt;&gt;"",_xlfn.CONCAT(C30,"Category"),"")</f>
         <v/>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C30&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E30" s="6"/>
@@ -2208,7 +2208,7 @@
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
       <c r="K30" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B30&lt;&gt;"",B30,"")</f>
         <v/>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C31&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E31" s="6"/>
@@ -2230,7 +2230,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B31&lt;&gt;"",B31,"")</f>
         <v/>
       </c>
     </row>
@@ -2242,7 +2242,7 @@
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C32&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E32" s="6"/>
@@ -2252,7 +2252,7 @@
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B32&lt;&gt;"",B32,"")</f>
         <v/>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C33&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E33" s="6"/>
@@ -2274,7 +2274,7 @@
       <c r="I33" s="6"/>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B33&lt;&gt;"",B33,"")</f>
         <v/>
       </c>
     </row>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="C34" s="6"/>
       <c r="D34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C34&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E34" s="6"/>
@@ -2296,7 +2296,7 @@
       <c r="I34" s="6"/>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B34&lt;&gt;"",B34,"")</f>
         <v/>
       </c>
     </row>
@@ -2308,7 +2308,7 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C35&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E35" s="6"/>
@@ -2318,7 +2318,7 @@
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B35&lt;&gt;"",B35,"")</f>
         <v/>
       </c>
     </row>
@@ -2330,7 +2330,7 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C36&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E36" s="6"/>
@@ -2340,7 +2340,7 @@
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B36&lt;&gt;"",B36,"")</f>
         <v/>
       </c>
     </row>
@@ -2352,7 +2352,7 @@
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C37&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E37" s="6"/>
@@ -2362,7 +2362,7 @@
       <c r="I37" s="6"/>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B37&lt;&gt;"",B37,"")</f>
         <v/>
       </c>
     </row>
@@ -2374,7 +2374,7 @@
       </c>
       <c r="C38" s="6"/>
       <c r="D38" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C38&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E38" s="6"/>
@@ -2384,7 +2384,7 @@
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B38&lt;&gt;"",B38,"")</f>
         <v/>
       </c>
     </row>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="C39" s="6"/>
       <c r="D39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C39&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E39" s="6"/>
@@ -2406,7 +2406,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B39&lt;&gt;"",B39,"")</f>
         <v/>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C40&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E40" s="6"/>
@@ -2428,7 +2428,7 @@
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B40&lt;&gt;"",B40,"")</f>
         <v/>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C41&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E41" s="6"/>
@@ -2450,7 +2450,7 @@
       <c r="I41" s="6"/>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B41&lt;&gt;"",B41,"")</f>
         <v/>
       </c>
     </row>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C42&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E42" s="6"/>
@@ -2472,7 +2472,7 @@
       <c r="I42" s="6"/>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B42&lt;&gt;"",B42,"")</f>
         <v/>
       </c>
     </row>
@@ -2484,7 +2484,7 @@
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C43&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E43" s="6"/>
@@ -2494,7 +2494,7 @@
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B43&lt;&gt;"",B43,"")</f>
         <v/>
       </c>
     </row>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C44&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E44" s="6"/>
@@ -2516,7 +2516,7 @@
       <c r="I44" s="6"/>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B44&lt;&gt;"",B44,"")</f>
         <v/>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C45&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E45" s="6"/>
@@ -2538,7 +2538,7 @@
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
       <c r="K45" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B45&lt;&gt;"",B45,"")</f>
         <v/>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C46&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E46" s="6"/>
@@ -2560,7 +2560,7 @@
       <c r="I46" s="6"/>
       <c r="J46" s="6"/>
       <c r="K46" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B46&lt;&gt;"",B46,"")</f>
         <v/>
       </c>
     </row>
@@ -2572,7 +2572,7 @@
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C47&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E47" s="6"/>
@@ -2582,7 +2582,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B47&lt;&gt;"",B47,"")</f>
         <v/>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C48&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E48" s="6"/>
@@ -2604,7 +2604,7 @@
       <c r="I48" s="6"/>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B48&lt;&gt;"",B48,"")</f>
         <v/>
       </c>
     </row>
@@ -2616,7 +2616,7 @@
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C49&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E49" s="6"/>
@@ -2626,7 +2626,7 @@
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B49&lt;&gt;"",B49,"")</f>
         <v/>
       </c>
     </row>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C50&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E50" s="6"/>
@@ -2648,7 +2648,7 @@
       <c r="I50" s="6"/>
       <c r="J50" s="6"/>
       <c r="K50" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B50&lt;&gt;"",B50,"")</f>
         <v/>
       </c>
     </row>
@@ -2660,7 +2660,7 @@
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C51&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E51" s="6"/>
@@ -2670,7 +2670,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B51&lt;&gt;"",B51,"")</f>
         <v/>
       </c>
     </row>
@@ -2682,7 +2682,7 @@
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C52&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E52" s="6"/>
@@ -2692,7 +2692,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B52&lt;&gt;"",B52,"")</f>
         <v/>
       </c>
     </row>
@@ -2704,7 +2704,7 @@
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C53&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E53" s="6"/>
@@ -2714,7 +2714,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B53&lt;&gt;"",B53,"")</f>
         <v/>
       </c>
     </row>
@@ -2726,7 +2726,7 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C54&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E54" s="6"/>
@@ -2736,7 +2736,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B54&lt;&gt;"",B54,"")</f>
         <v/>
       </c>
     </row>
@@ -2748,7 +2748,7 @@
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D55:D118" si="4">IF(C55&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E55" s="6"/>
@@ -2758,19 +2758,19 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K55:K118" si="5">IF(B55&lt;&gt;"",B55,"")</f>
         <v/>
       </c>
     </row>
     <row r="56" ht="16.5" spans="1:11">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="B56:B119" si="6">IF(C56&lt;&gt;"",_xlfn.CONCAT(C56,"Category"),"")</f>
         <v/>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="6" t="str">
-        <f t="shared" ref="D56:D119" si="4">IF(C56&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="E56" s="6"/>
@@ -2780,14 +2780,14 @@
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
       <c r="K56" s="6" t="str">
-        <f t="shared" ref="K56:K119" si="5">IF(B56&lt;&gt;"",B56,"")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
     <row r="57" ht="16.5" spans="1:11">
       <c r="A57" s="6"/>
       <c r="B57" s="6" t="str">
-        <f t="shared" ref="B57:B120" si="6">IF(C57&lt;&gt;"",_xlfn.CONCAT(C57,"Category"),"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="C57" s="6"/>
@@ -4156,7 +4156,7 @@
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="D119:D182" si="7">IF(C119&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E119" s="6"/>
@@ -4166,19 +4166,19 @@
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K119:K182" si="8">IF(B119&lt;&gt;"",B119,"")</f>
         <v/>
       </c>
     </row>
     <row r="120" ht="16.5" spans="1:11">
       <c r="A120" s="6"/>
       <c r="B120" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="B120:B183" si="9">IF(C120&lt;&gt;"",_xlfn.CONCAT(C120,"Category"),"")</f>
         <v/>
       </c>
       <c r="C120" s="6"/>
       <c r="D120" s="6" t="str">
-        <f t="shared" ref="D120:D183" si="7">IF(C120&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="E120" s="6"/>
@@ -4188,14 +4188,14 @@
       <c r="I120" s="6"/>
       <c r="J120" s="6"/>
       <c r="K120" s="6" t="str">
-        <f t="shared" ref="K120:K183" si="8">IF(B120&lt;&gt;"",B120,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
     <row r="121" ht="16.5" spans="1:11">
       <c r="A121" s="6"/>
       <c r="B121" s="6" t="str">
-        <f t="shared" ref="B121:B184" si="9">IF(C121&lt;&gt;"",_xlfn.CONCAT(C121,"Category"),"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="C121" s="6"/>
@@ -5564,7 +5564,7 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="D183:D246" si="10">IF(C183&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E183" s="6"/>
@@ -5574,19 +5574,19 @@
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K183:K246" si="11">IF(B183&lt;&gt;"",B183,"")</f>
         <v/>
       </c>
     </row>
     <row r="184" ht="16.5" spans="1:11">
       <c r="A184" s="6"/>
       <c r="B184" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="B184:B247" si="12">IF(C184&lt;&gt;"",_xlfn.CONCAT(C184,"Category"),"")</f>
         <v/>
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6" t="str">
-        <f t="shared" ref="D184:D247" si="10">IF(C184&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="E184" s="6"/>
@@ -5596,14 +5596,14 @@
       <c r="I184" s="6"/>
       <c r="J184" s="6"/>
       <c r="K184" s="6" t="str">
-        <f t="shared" ref="K184:K247" si="11">IF(B184&lt;&gt;"",B184,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
     <row r="185" ht="16.5" spans="1:11">
       <c r="A185" s="6"/>
       <c r="B185" s="6" t="str">
-        <f t="shared" ref="B185:B248" si="12">IF(C185&lt;&gt;"",_xlfn.CONCAT(C185,"Category"),"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="C185" s="6"/>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D247:D310" si="13">IF(C247&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E247" s="6"/>
@@ -6982,19 +6982,19 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="K247:K310" si="14">IF(B247&lt;&gt;"",B247,"")</f>
         <v/>
       </c>
     </row>
     <row r="248" ht="16.5" spans="1:11">
       <c r="A248" s="6"/>
       <c r="B248" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="B248:B311" si="15">IF(C248&lt;&gt;"",_xlfn.CONCAT(C248,"Category"),"")</f>
         <v/>
       </c>
       <c r="C248" s="6"/>
       <c r="D248" s="6" t="str">
-        <f t="shared" ref="D248:D311" si="13">IF(C248&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="E248" s="6"/>
@@ -7004,14 +7004,14 @@
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="6" t="str">
-        <f t="shared" ref="K248:K311" si="14">IF(B248&lt;&gt;"",B248,"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
     <row r="249" ht="16.5" spans="1:11">
       <c r="A249" s="6"/>
       <c r="B249" s="6" t="str">
-        <f t="shared" ref="B249:B312" si="15">IF(C249&lt;&gt;"",_xlfn.CONCAT(C249,"Category"),"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="C249" s="6"/>
@@ -8380,7 +8380,7 @@
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="D311:D374" si="16">IF(C311&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E311" s="6"/>
@@ -8390,19 +8390,19 @@
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
       <c r="K311" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="K311:K374" si="17">IF(B311&lt;&gt;"",B311,"")</f>
         <v/>
       </c>
     </row>
     <row r="312" ht="16.5" spans="1:11">
       <c r="A312" s="6"/>
       <c r="B312" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="B312:B375" si="18">IF(C312&lt;&gt;"",_xlfn.CONCAT(C312,"Category"),"")</f>
         <v/>
       </c>
       <c r="C312" s="6"/>
       <c r="D312" s="6" t="str">
-        <f t="shared" ref="D312:D375" si="16">IF(C312&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="E312" s="6"/>
@@ -8412,14 +8412,14 @@
       <c r="I312" s="6"/>
       <c r="J312" s="6"/>
       <c r="K312" s="6" t="str">
-        <f t="shared" ref="K312:K375" si="17">IF(B312&lt;&gt;"",B312,"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
     <row r="313" ht="16.5" spans="1:11">
       <c r="A313" s="6"/>
       <c r="B313" s="6" t="str">
-        <f t="shared" ref="B313:B376" si="18">IF(C313&lt;&gt;"",_xlfn.CONCAT(C313,"Category"),"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="C313" s="6"/>
@@ -9788,7 +9788,7 @@
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D375:D438" si="19">IF(C375&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E375" s="6"/>
@@ -9798,19 +9798,19 @@
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
       <c r="K375" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="K375:K438" si="20">IF(B375&lt;&gt;"",B375,"")</f>
         <v/>
       </c>
     </row>
     <row r="376" ht="16.5" spans="1:11">
       <c r="A376" s="6"/>
       <c r="B376" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="B376:B439" si="21">IF(C376&lt;&gt;"",_xlfn.CONCAT(C376,"Category"),"")</f>
         <v/>
       </c>
       <c r="C376" s="6"/>
       <c r="D376" s="6" t="str">
-        <f t="shared" ref="D376:D439" si="19">IF(C376&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="E376" s="6"/>
@@ -9820,14 +9820,14 @@
       <c r="I376" s="6"/>
       <c r="J376" s="6"/>
       <c r="K376" s="6" t="str">
-        <f t="shared" ref="K376:K439" si="20">IF(B376&lt;&gt;"",B376,"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>
     <row r="377" ht="16.5" spans="1:11">
       <c r="A377" s="6"/>
       <c r="B377" s="6" t="str">
-        <f t="shared" ref="B377:B440" si="21">IF(C377&lt;&gt;"",_xlfn.CONCAT(C377,"Category"),"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="C377" s="6"/>
@@ -11196,7 +11196,7 @@
       </c>
       <c r="C439" s="6"/>
       <c r="D439" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="D439:D502" si="22">IF(C439&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E439" s="6"/>
@@ -11206,19 +11206,19 @@
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
       <c r="K439" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="K439:K502" si="23">IF(B439&lt;&gt;"",B439,"")</f>
         <v/>
       </c>
     </row>
     <row r="440" ht="16.5" spans="1:11">
       <c r="A440" s="6"/>
       <c r="B440" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="B440:B503" si="24">IF(C440&lt;&gt;"",_xlfn.CONCAT(C440,"Category"),"")</f>
         <v/>
       </c>
       <c r="C440" s="6"/>
       <c r="D440" s="6" t="str">
-        <f t="shared" ref="D440:D503" si="22">IF(C440&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="E440" s="6"/>
@@ -11228,14 +11228,14 @@
       <c r="I440" s="6"/>
       <c r="J440" s="6"/>
       <c r="K440" s="6" t="str">
-        <f t="shared" ref="K440:K503" si="23">IF(B440&lt;&gt;"",B440,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
     </row>
     <row r="441" ht="16.5" spans="1:11">
       <c r="A441" s="6"/>
       <c r="B441" s="6" t="str">
-        <f t="shared" ref="B441:B504" si="24">IF(C441&lt;&gt;"",_xlfn.CONCAT(C441,"Category"),"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="C441" s="6"/>
@@ -12604,7 +12604,7 @@
       </c>
       <c r="C503" s="6"/>
       <c r="D503" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="D503:D566" si="25">IF(C503&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E503" s="6"/>
@@ -12614,19 +12614,19 @@
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
       <c r="K503" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="K503:K566" si="26">IF(B503&lt;&gt;"",B503,"")</f>
         <v/>
       </c>
     </row>
     <row r="504" ht="16.5" spans="1:11">
       <c r="A504" s="6"/>
       <c r="B504" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="B504:B567" si="27">IF(C504&lt;&gt;"",_xlfn.CONCAT(C504,"Category"),"")</f>
         <v/>
       </c>
       <c r="C504" s="6"/>
       <c r="D504" s="6" t="str">
-        <f t="shared" ref="D504:D567" si="25">IF(C504&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="E504" s="6"/>
@@ -12636,14 +12636,14 @@
       <c r="I504" s="6"/>
       <c r="J504" s="6"/>
       <c r="K504" s="6" t="str">
-        <f t="shared" ref="K504:K567" si="26">IF(B504&lt;&gt;"",B504,"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
     </row>
     <row r="505" ht="16.5" spans="1:11">
       <c r="A505" s="6"/>
       <c r="B505" s="6" t="str">
-        <f t="shared" ref="B505:B568" si="27">IF(C505&lt;&gt;"",_xlfn.CONCAT(C505,"Category"),"")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="C505" s="6"/>
@@ -14012,7 +14012,7 @@
       </c>
       <c r="C567" s="6"/>
       <c r="D567" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="D567:D630" si="28">IF(C567&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E567" s="6"/>
@@ -14022,19 +14022,19 @@
       <c r="I567" s="6"/>
       <c r="J567" s="6"/>
       <c r="K567" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="K567:K630" si="29">IF(B567&lt;&gt;"",B567,"")</f>
         <v/>
       </c>
     </row>
     <row r="568" ht="16.5" spans="1:11">
       <c r="A568" s="6"/>
       <c r="B568" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="B568:B631" si="30">IF(C568&lt;&gt;"",_xlfn.CONCAT(C568,"Category"),"")</f>
         <v/>
       </c>
       <c r="C568" s="6"/>
       <c r="D568" s="6" t="str">
-        <f t="shared" ref="D568:D631" si="28">IF(C568&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="E568" s="6"/>
@@ -14044,14 +14044,14 @@
       <c r="I568" s="6"/>
       <c r="J568" s="6"/>
       <c r="K568" s="6" t="str">
-        <f t="shared" ref="K568:K631" si="29">IF(B568&lt;&gt;"",B568,"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
     </row>
     <row r="569" ht="16.5" spans="1:11">
       <c r="A569" s="6"/>
       <c r="B569" s="6" t="str">
-        <f t="shared" ref="B569:B632" si="30">IF(C569&lt;&gt;"",_xlfn.CONCAT(C569,"Category"),"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="C569" s="6"/>
@@ -15420,7 +15420,7 @@
       </c>
       <c r="C631" s="6"/>
       <c r="D631" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="D631:D694" si="31">IF(C631&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E631" s="6"/>
@@ -15430,19 +15430,19 @@
       <c r="I631" s="6"/>
       <c r="J631" s="6"/>
       <c r="K631" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="K631:K694" si="32">IF(B631&lt;&gt;"",B631,"")</f>
         <v/>
       </c>
     </row>
     <row r="632" ht="16.5" spans="1:11">
       <c r="A632" s="6"/>
       <c r="B632" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="B632:B695" si="33">IF(C632&lt;&gt;"",_xlfn.CONCAT(C632,"Category"),"")</f>
         <v/>
       </c>
       <c r="C632" s="6"/>
       <c r="D632" s="6" t="str">
-        <f t="shared" ref="D632:D695" si="31">IF(C632&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="E632" s="6"/>
@@ -15452,14 +15452,14 @@
       <c r="I632" s="6"/>
       <c r="J632" s="6"/>
       <c r="K632" s="6" t="str">
-        <f t="shared" ref="K632:K695" si="32">IF(B632&lt;&gt;"",B632,"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
     </row>
     <row r="633" ht="16.5" spans="1:11">
       <c r="A633" s="6"/>
       <c r="B633" s="6" t="str">
-        <f t="shared" ref="B633:B696" si="33">IF(C633&lt;&gt;"",_xlfn.CONCAT(C633,"Category"),"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="C633" s="6"/>
@@ -16828,7 +16828,7 @@
       </c>
       <c r="C695" s="6"/>
       <c r="D695" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="D695:D758" si="34">IF(C695&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E695" s="6"/>
@@ -16838,19 +16838,19 @@
       <c r="I695" s="6"/>
       <c r="J695" s="6"/>
       <c r="K695" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="K695:K758" si="35">IF(B695&lt;&gt;"",B695,"")</f>
         <v/>
       </c>
     </row>
     <row r="696" ht="16.5" spans="1:11">
       <c r="A696" s="6"/>
       <c r="B696" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="B696:B759" si="36">IF(C696&lt;&gt;"",_xlfn.CONCAT(C696,"Category"),"")</f>
         <v/>
       </c>
       <c r="C696" s="6"/>
       <c r="D696" s="6" t="str">
-        <f t="shared" ref="D696:D759" si="34">IF(C696&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="E696" s="6"/>
@@ -16860,14 +16860,14 @@
       <c r="I696" s="6"/>
       <c r="J696" s="6"/>
       <c r="K696" s="6" t="str">
-        <f t="shared" ref="K696:K759" si="35">IF(B696&lt;&gt;"",B696,"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
     </row>
     <row r="697" ht="16.5" spans="1:11">
       <c r="A697" s="6"/>
       <c r="B697" s="6" t="str">
-        <f t="shared" ref="B697:B760" si="36">IF(C697&lt;&gt;"",_xlfn.CONCAT(C697,"Category"),"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="C697" s="6"/>
@@ -18236,7 +18236,7 @@
       </c>
       <c r="C759" s="6"/>
       <c r="D759" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="D759:D822" si="37">IF(C759&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E759" s="6"/>
@@ -18246,19 +18246,19 @@
       <c r="I759" s="6"/>
       <c r="J759" s="6"/>
       <c r="K759" s="6" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="K759:K822" si="38">IF(B759&lt;&gt;"",B759,"")</f>
         <v/>
       </c>
     </row>
     <row r="760" ht="16.5" spans="1:11">
       <c r="A760" s="6"/>
       <c r="B760" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="B760:B823" si="39">IF(C760&lt;&gt;"",_xlfn.CONCAT(C760,"Category"),"")</f>
         <v/>
       </c>
       <c r="C760" s="6"/>
       <c r="D760" s="6" t="str">
-        <f t="shared" ref="D760:D823" si="37">IF(C760&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="E760" s="6"/>
@@ -18268,14 +18268,14 @@
       <c r="I760" s="6"/>
       <c r="J760" s="6"/>
       <c r="K760" s="6" t="str">
-        <f t="shared" ref="K760:K823" si="38">IF(B760&lt;&gt;"",B760,"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
     </row>
     <row r="761" ht="16.5" spans="1:11">
       <c r="A761" s="6"/>
       <c r="B761" s="6" t="str">
-        <f t="shared" ref="B761:B824" si="39">IF(C761&lt;&gt;"",_xlfn.CONCAT(C761,"Category"),"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="C761" s="6"/>
@@ -19644,7 +19644,7 @@
       </c>
       <c r="C823" s="6"/>
       <c r="D823" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="D823:D886" si="40">IF(C823&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E823" s="6"/>
@@ -19654,19 +19654,19 @@
       <c r="I823" s="6"/>
       <c r="J823" s="6"/>
       <c r="K823" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="K823:K886" si="41">IF(B823&lt;&gt;"",B823,"")</f>
         <v/>
       </c>
     </row>
     <row r="824" ht="16.5" spans="1:11">
       <c r="A824" s="6"/>
       <c r="B824" s="6" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="B824:B887" si="42">IF(C824&lt;&gt;"",_xlfn.CONCAT(C824,"Category"),"")</f>
         <v/>
       </c>
       <c r="C824" s="6"/>
       <c r="D824" s="6" t="str">
-        <f t="shared" ref="D824:D887" si="40">IF(C824&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="E824" s="6"/>
@@ -19676,14 +19676,14 @@
       <c r="I824" s="6"/>
       <c r="J824" s="6"/>
       <c r="K824" s="6" t="str">
-        <f t="shared" ref="K824:K887" si="41">IF(B824&lt;&gt;"",B824,"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
     </row>
     <row r="825" ht="16.5" spans="1:11">
       <c r="A825" s="6"/>
       <c r="B825" s="6" t="str">
-        <f t="shared" ref="B825:B888" si="42">IF(C825&lt;&gt;"",_xlfn.CONCAT(C825,"Category"),"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="C825" s="6"/>
@@ -21052,7 +21052,7 @@
       </c>
       <c r="C887" s="6"/>
       <c r="D887" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="D887:D950" si="43">IF(C887&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E887" s="6"/>
@@ -21062,19 +21062,19 @@
       <c r="I887" s="6"/>
       <c r="J887" s="6"/>
       <c r="K887" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="K887:K950" si="44">IF(B887&lt;&gt;"",B887,"")</f>
         <v/>
       </c>
     </row>
     <row r="888" ht="16.5" spans="1:11">
       <c r="A888" s="6"/>
       <c r="B888" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="B888:B951" si="45">IF(C888&lt;&gt;"",_xlfn.CONCAT(C888,"Category"),"")</f>
         <v/>
       </c>
       <c r="C888" s="6"/>
       <c r="D888" s="6" t="str">
-        <f t="shared" ref="D888:D951" si="43">IF(C888&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="E888" s="6"/>
@@ -21084,14 +21084,14 @@
       <c r="I888" s="6"/>
       <c r="J888" s="6"/>
       <c r="K888" s="6" t="str">
-        <f t="shared" ref="K888:K951" si="44">IF(B888&lt;&gt;"",B888,"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
     </row>
     <row r="889" ht="16.5" spans="1:11">
       <c r="A889" s="6"/>
       <c r="B889" s="6" t="str">
-        <f t="shared" ref="B889:B952" si="45">IF(C889&lt;&gt;"",_xlfn.CONCAT(C889,"Category"),"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="C889" s="6"/>
@@ -22460,7 +22460,7 @@
       </c>
       <c r="C951" s="6"/>
       <c r="D951" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="D951:D986" si="46">IF(C951&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E951" s="6"/>
@@ -22470,19 +22470,19 @@
       <c r="I951" s="6"/>
       <c r="J951" s="6"/>
       <c r="K951" s="6" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="K951:K986" si="47">IF(B951&lt;&gt;"",B951,"")</f>
         <v/>
       </c>
     </row>
     <row r="952" ht="16.5" spans="1:11">
       <c r="A952" s="6"/>
       <c r="B952" s="6" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="B952:B986" si="48">IF(C952&lt;&gt;"",_xlfn.CONCAT(C952,"Category"),"")</f>
         <v/>
       </c>
       <c r="C952" s="6"/>
       <c r="D952" s="6" t="str">
-        <f t="shared" ref="D952:D987" si="46">IF(C952&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="E952" s="6"/>
@@ -22492,14 +22492,14 @@
       <c r="I952" s="6"/>
       <c r="J952" s="6"/>
       <c r="K952" s="6" t="str">
-        <f t="shared" ref="K952:K987" si="47">IF(B952&lt;&gt;"",B952,"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="953" ht="16.5" spans="1:11">
       <c r="A953" s="6"/>
       <c r="B953" s="6" t="str">
-        <f t="shared" ref="B953:B987" si="48">IF(C953&lt;&gt;"",_xlfn.CONCAT(C953,"Category"),"")</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="C953" s="6"/>
@@ -23240,28 +23240,6 @@
       <c r="I986" s="6"/>
       <c r="J986" s="6"/>
       <c r="K986" s="6" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="987" ht="16.5" spans="1:11">
-      <c r="A987" s="6"/>
-      <c r="B987" s="6" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="C987" s="6"/>
-      <c r="D987" s="6" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E987" s="6"/>
-      <c r="F987" s="6"/>
-      <c r="G987" s="6"/>
-      <c r="H987" s="6"/>
-      <c r="I987" s="6"/>
-      <c r="J987" s="6"/>
-      <c r="K987" s="6" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065"/>
+    <workbookView windowWidth="22095" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
   <si>
     <t>##var</t>
   </si>
@@ -390,6 +390,24 @@
   </si>
   <si>
     <t>天赋配置表</t>
+  </si>
+  <si>
+    <t>GemConfig</t>
+  </si>
+  <si>
+    <t>GemConfig.xlsx</t>
+  </si>
+  <si>
+    <t>宝石配置表</t>
+  </si>
+  <si>
+    <t>EquipmentHoleConfig</t>
+  </si>
+  <si>
+    <t>EquipmentHoleConfig.xlsx</t>
+  </si>
+  <si>
+    <t>装备宝石孔位配置</t>
   </si>
 </sst>
 </file>
@@ -1360,8 +1378,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2231,44 +2249,56 @@
       <c r="A31" s="6"/>
       <c r="B31" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6" t="str">
+        <v>GemConfigCategory</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E31" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>122</v>
+      </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>GemConfigCategory</v>
       </c>
     </row>
     <row r="32" ht="16.5" spans="1:11">
       <c r="A32" s="6"/>
       <c r="B32" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6" t="str">
+        <v>EquipmentHoleConfigCategory</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E32" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>125</v>
+      </c>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
+      <c r="I32" s="6" t="s">
+        <v>126</v>
+      </c>
       <c r="J32" s="6"/>
       <c r="K32" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>EquipmentHoleConfigCategory</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22095" windowHeight="7740"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
   <si>
     <t>##var</t>
   </si>
@@ -408,6 +408,24 @@
   </si>
   <si>
     <t>装备宝石孔位配置</t>
+  </si>
+  <si>
+    <t>PropertyScoreConfig</t>
+  </si>
+  <si>
+    <t>PropertyScoreConfig.xlsx</t>
+  </si>
+  <si>
+    <t>属性分数配置</t>
+  </si>
+  <si>
+    <t>ShopConfig</t>
+  </si>
+  <si>
+    <t>ShopConfig.xlsx</t>
+  </si>
+  <si>
+    <t>商店配置</t>
   </si>
 </sst>
 </file>
@@ -1378,8 +1396,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2305,44 +2323,56 @@
       <c r="A33" s="6"/>
       <c r="B33" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6" t="str">
+        <v>PropertyScoreConfigCategory</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E33" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>128</v>
+      </c>
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>129</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>PropertyScoreConfigCategory</v>
       </c>
     </row>
     <row r="34" ht="16.5" spans="1:11">
       <c r="A34" s="6"/>
       <c r="B34" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6" t="str">
+        <v>ShopConfigCategory</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E34" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="J34" s="6"/>
       <c r="K34" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>ShopConfigCategory</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="20175" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>##var</t>
   </si>
@@ -426,6 +426,15 @@
   </si>
   <si>
     <t>商店配置</t>
+  </si>
+  <si>
+    <t>SignConfig</t>
+  </si>
+  <si>
+    <t>SignConfig.xlsx</t>
+  </si>
+  <si>
+    <t>签到配置</t>
   </si>
 </sst>
 </file>
@@ -1396,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H22" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2379,22 +2388,28 @@
       <c r="A35" s="6"/>
       <c r="B35" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6" t="str">
+        <v>SignConfigCategory</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E35" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
+      <c r="I35" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SignConfigCategory</v>
       </c>
     </row>
     <row r="36" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1405,8 +1405,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="20175" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
   <si>
     <t>##var</t>
   </si>
@@ -435,6 +435,24 @@
   </si>
   <si>
     <t>签到配置</t>
+  </si>
+  <si>
+    <t>TransmogrificationConfig</t>
+  </si>
+  <si>
+    <t>TransmogrificationConfig.xlsx</t>
+  </si>
+  <si>
+    <t>幻化配置</t>
+  </si>
+  <si>
+    <t>DropConfig</t>
+  </si>
+  <si>
+    <t>DropConfig.xlsx</t>
+  </si>
+  <si>
+    <t>掉落配置</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1423,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2416,44 +2434,56 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6" t="str">
+        <v>TransmogrificationConfigCategory</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E36" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>138</v>
+      </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>TransmogrificationConfigCategory</v>
       </c>
     </row>
     <row r="37" ht="16.5" spans="1:11">
       <c r="A37" s="6"/>
       <c r="B37" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6" t="str">
+        <v>DropConfigCategory</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E37" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>DropConfigCategory</v>
       </c>
     </row>
     <row r="38" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20175" windowHeight="8325"/>
+    <workbookView windowWidth="18465" windowHeight="8325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
   <si>
     <t>##var</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>掉落配置</t>
+  </si>
+  <si>
+    <t>BornSceneConfig</t>
+  </si>
+  <si>
+    <t>BornSceneConfig.xlsx</t>
+  </si>
+  <si>
+    <t>玩家初始场景配置</t>
   </si>
 </sst>
 </file>
@@ -1423,8 +1432,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2490,22 +2499,28 @@
       <c r="A38" s="6"/>
       <c r="B38" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="str">
+        <v>BornSceneConfigCategory</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D38" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E38" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="J38" s="6"/>
       <c r="K38" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>BornSceneConfigCategory</v>
       </c>
     </row>
     <row r="39" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18465" windowHeight="8325"/>
+    <workbookView windowWidth="18705" windowHeight="8910"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -329,10 +329,10 @@
     <t>场景配置表</t>
   </si>
   <si>
-    <t>DungeonsConfig</t>
+    <t>DungeonConfig</t>
   </si>
   <si>
-    <t>DungeonsConfig.xlsx</t>
+    <t>DungeonConfig.xlsx</t>
   </si>
   <si>
     <t>地下城配置表</t>
@@ -1432,8 +1432,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2107,7 +2107,7 @@
       <c r="A24" s="6"/>
       <c r="B24" s="6" t="str">
         <f t="shared" si="3"/>
-        <v>DungeonsConfigCategory</v>
+        <v>DungeonConfigCategory</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>100</v>
@@ -2128,7 +2128,7 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>DungeonsConfigCategory</v>
+        <v>DungeonConfigCategory</v>
       </c>
     </row>
     <row r="25" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
   <si>
     <t>##var</t>
   </si>
@@ -462,6 +462,15 @@
   </si>
   <si>
     <t>玩家初始场景配置</t>
+  </si>
+  <si>
+    <t>MountConfig</t>
+  </si>
+  <si>
+    <t>MountConfig.xlsx</t>
+  </si>
+  <si>
+    <t>坐骑配置</t>
   </si>
 </sst>
 </file>
@@ -1432,8 +1441,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G20" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2527,22 +2536,28 @@
       <c r="A39" s="6"/>
       <c r="B39" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6" t="str">
+        <v>MountConfigCategory</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E39" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>147</v>
+      </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>MountConfigCategory</v>
       </c>
     </row>
     <row r="40" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="8910"/>
+    <workbookView windowWidth="18705" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
   <si>
     <t>##var</t>
   </si>
@@ -471,6 +471,24 @@
   </si>
   <si>
     <t>坐骑配置</t>
+  </si>
+  <si>
+    <t>OfflineIncomeConfig</t>
+  </si>
+  <si>
+    <t>OfflineIncomeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>离线奖励配置</t>
+  </si>
+  <si>
+    <t>VipConfig</t>
+  </si>
+  <si>
+    <t>VipConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Vip配置</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1459,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2564,44 +2582,56 @@
       <c r="A40" s="6"/>
       <c r="B40" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6" t="str">
+        <v>OfflineIncomeConfigCategory</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E40" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>149</v>
+      </c>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="J40" s="6"/>
       <c r="K40" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>OfflineIncomeConfigCategory</v>
       </c>
     </row>
     <row r="41" ht="16.5" spans="1:11">
       <c r="A41" s="6"/>
       <c r="B41" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6" t="str">
+        <v>VipConfigCategory</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E41" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>152</v>
+      </c>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>153</v>
+      </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>VipConfigCategory</v>
       </c>
     </row>
     <row r="42" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
   <si>
     <t>##var</t>
   </si>
@@ -489,6 +489,15 @@
   </si>
   <si>
     <t>Vip配置</t>
+  </si>
+  <si>
+    <t>ItemPackConfig</t>
+  </si>
+  <si>
+    <t>ItemPackConfig.xlsx</t>
+  </si>
+  <si>
+    <t>道具礼包表</t>
   </si>
 </sst>
 </file>
@@ -1459,8 +1468,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G24" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2638,22 +2647,28 @@
       <c r="A42" s="6"/>
       <c r="B42" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6" t="str">
+        <v>ItemPackConfigCategory</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D42" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E42" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>155</v>
+      </c>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
+      <c r="I42" s="6" t="s">
+        <v>156</v>
+      </c>
       <c r="J42" s="6"/>
       <c r="K42" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>ItemPackConfigCategory</v>
       </c>
     </row>
     <row r="43" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="18705" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
   <si>
     <t>##var</t>
   </si>
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>道具礼包表</t>
+  </si>
+  <si>
+    <t>ChargeConfig</t>
+  </si>
+  <si>
+    <t>ChargeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>支付商城配置</t>
   </si>
 </sst>
 </file>
@@ -1468,8 +1477,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2675,22 +2684,28 @@
       <c r="A43" s="6"/>
       <c r="B43" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6" t="str">
+        <v>ChargeConfigCategory</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D43" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E43" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>158</v>
+      </c>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>159</v>
+      </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>ChargeConfigCategory</v>
       </c>
     </row>
     <row r="44" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18705" windowHeight="10455"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="163">
   <si>
     <t>##var</t>
   </si>
@@ -507,6 +507,15 @@
   </si>
   <si>
     <t>支付商城配置</t>
+  </si>
+  <si>
+    <t>LotteryConfig</t>
+  </si>
+  <si>
+    <t>LotteryConfig.xlsx</t>
+  </si>
+  <si>
+    <t>抽宝配置</t>
   </si>
 </sst>
 </file>
@@ -1477,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2712,22 +2721,28 @@
       <c r="A44" s="6"/>
       <c r="B44" s="6" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6" t="str">
+        <v>LotteryConfigCategory</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E44" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>161</v>
+      </c>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
+      <c r="I44" s="6" t="s">
+        <v>162</v>
+      </c>
       <c r="J44" s="6"/>
       <c r="K44" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>LotteryConfigCategory</v>
       </c>
     </row>
     <row r="45" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="24645" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1486,8 +1486,8 @@
   <sheetPr/>
   <dimension ref="A1:K986"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2747,25 +2747,16 @@
     </row>
     <row r="45" ht="16.5" spans="1:11">
       <c r="A45" s="6"/>
-      <c r="B45" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="B45" s="6"/>
       <c r="C45" s="6"/>
-      <c r="D45" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
       <c r="J45" s="6"/>
-      <c r="K45" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="K45" s="6"/>
     </row>
     <row r="46" ht="16.5" spans="1:11">
       <c r="A46" s="6"/>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
   <si>
     <t>##var</t>
   </si>
@@ -524,7 +524,7 @@
     <t>ActionConfig.xlsx</t>
   </si>
   <si>
-    <t>行为配置表</t>
+    <t>技能行为配置表</t>
   </si>
   <si>
     <t>BulletConfig</t>
@@ -543,6 +543,15 @@
   </si>
   <si>
     <t>场景怪物配置</t>
+  </si>
+  <si>
+    <t>CastConfig</t>
+  </si>
+  <si>
+    <t>CastConfig.xlsx</t>
+  </si>
+  <si>
+    <t>技能释放配置</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1523,7 @@
   <dimension ref="A1:K986"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2860,22 +2869,28 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6" t="str">
+        <v>CastConfigCategory</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E48" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>173</v>
+      </c>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>174</v>
+      </c>
       <c r="J48" s="6"/>
       <c r="K48" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CastConfigCategory</v>
       </c>
     </row>
     <row r="49" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455"/>
+    <workbookView windowWidth="19815" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="181">
   <si>
     <t>##var</t>
   </si>
@@ -552,6 +552,24 @@
   </si>
   <si>
     <t>技能释放配置</t>
+  </si>
+  <si>
+    <t>SceneNpcConfig</t>
+  </si>
+  <si>
+    <t>SceneNpcConfig.xlsx</t>
+  </si>
+  <si>
+    <t>场景Npc配置</t>
+  </si>
+  <si>
+    <t>MonsterConfig</t>
+  </si>
+  <si>
+    <t>MonsterConfig.xlsx</t>
+  </si>
+  <si>
+    <t>怪物相关信息表</t>
   </si>
 </sst>
 </file>
@@ -1520,10 +1538,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K986"/>
+  <dimension ref="A1:K985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E37" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2784,14 +2802,14 @@
     <row r="45" ht="16.5" spans="1:11">
       <c r="A45" s="6"/>
       <c r="B45" s="6" t="str">
-        <f>IF(C45&lt;&gt;"",_xlfn.CONCAT(C45,"Category"),"")</f>
+        <f t="shared" si="4"/>
         <v>ActionConfigCategory</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>163</v>
       </c>
       <c r="D45" s="6" t="b">
-        <f>IF(C45&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
@@ -2805,14 +2823,14 @@
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6" t="str">
-        <f>IF(B45&lt;&gt;"",B45,"")</f>
+        <f t="shared" si="2"/>
         <v>ActionConfigCategory</v>
       </c>
     </row>
     <row r="46" ht="16.5" spans="1:11">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="str">
-        <f t="shared" ref="B46:B109" si="5">IF(C46&lt;&gt;"",_xlfn.CONCAT(C46,"Category"),"")</f>
+        <f>IF(C46&lt;&gt;"",_xlfn.CONCAT(C46,"Category"),"")</f>
         <v>BulletConfigCategory</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -2840,7 +2858,7 @@
     <row r="47" ht="16.5" spans="1:11">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C47&lt;&gt;"",_xlfn.CONCAT(C47,"Category"),"")</f>
         <v>SceneMonsterConfigCategory</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -2868,7 +2886,7 @@
     <row r="48" ht="16.5" spans="1:11">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f>IF(C48&lt;&gt;"",_xlfn.CONCAT(C48,"Category"),"")</f>
         <v>CastConfigCategory</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -2896,56 +2914,68 @@
     <row r="49" ht="16.5" spans="1:11">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6" t="str">
+        <f>IF(C49&lt;&gt;"",_xlfn.CONCAT(C49,"Category"),"")</f>
+        <v>SceneNpcConfigCategory</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D49" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E49" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>176</v>
+      </c>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SceneNpcConfigCategory</v>
       </c>
     </row>
     <row r="50" ht="16.5" spans="1:11">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6" t="str">
+        <f>IF(C50&lt;&gt;"",_xlfn.CONCAT(C50,"Category"),"")</f>
+        <v>MonsterConfigCategory</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D50" s="6" t="b">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="E50" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>179</v>
+      </c>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>180</v>
+      </c>
       <c r="J50" s="6"/>
       <c r="K50" s="6" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>MonsterConfigCategory</v>
       </c>
     </row>
     <row r="51" ht="16.5" spans="1:11">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B51:B108" si="5">IF(C51&lt;&gt;"",_xlfn.CONCAT(C51,"Category"),"")</f>
         <v/>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C51&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E51" s="6"/>
@@ -2955,7 +2985,7 @@
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B51&lt;&gt;"",B51,"")</f>
         <v/>
       </c>
     </row>
@@ -2967,7 +2997,7 @@
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C52&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E52" s="6"/>
@@ -2977,7 +3007,7 @@
       <c r="I52" s="6"/>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B52&lt;&gt;"",B52,"")</f>
         <v/>
       </c>
     </row>
@@ -2989,7 +3019,7 @@
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(C53&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E53" s="6"/>
@@ -2999,7 +3029,7 @@
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(B53&lt;&gt;"",B53,"")</f>
         <v/>
       </c>
     </row>
@@ -3011,7 +3041,7 @@
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D54:D117" si="6">IF(C54&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E54" s="6"/>
@@ -3021,7 +3051,7 @@
       <c r="I54" s="6"/>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="K54:K117" si="7">IF(B54&lt;&gt;"",B54,"")</f>
         <v/>
       </c>
     </row>
@@ -3033,7 +3063,7 @@
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6" t="str">
-        <f t="shared" ref="D55:D118" si="6">IF(C55&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="E55" s="6"/>
@@ -3043,7 +3073,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="K55" s="6" t="str">
-        <f t="shared" ref="K55:K118" si="7">IF(B55&lt;&gt;"",B55,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4216,7 +4246,7 @@
     <row r="109" ht="16.5" spans="1:11">
       <c r="A109" s="6"/>
       <c r="B109" s="6" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B109:B172" si="8">IF(C109&lt;&gt;"",_xlfn.CONCAT(C109,"Category"),"")</f>
         <v/>
       </c>
       <c r="C109" s="6"/>
@@ -4238,7 +4268,7 @@
     <row r="110" ht="16.5" spans="1:11">
       <c r="A110" s="6"/>
       <c r="B110" s="6" t="str">
-        <f t="shared" ref="B110:B173" si="8">IF(C110&lt;&gt;"",_xlfn.CONCAT(C110,"Category"),"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="C110" s="6"/>
@@ -4419,7 +4449,7 @@
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="D118:D181" si="9">IF(C118&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E118" s="6"/>
@@ -4429,7 +4459,7 @@
       <c r="I118" s="6"/>
       <c r="J118" s="6"/>
       <c r="K118" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K118:K181" si="10">IF(B118&lt;&gt;"",B118,"")</f>
         <v/>
       </c>
     </row>
@@ -4441,7 +4471,7 @@
       </c>
       <c r="C119" s="6"/>
       <c r="D119" s="6" t="str">
-        <f t="shared" ref="D119:D182" si="9">IF(C119&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="E119" s="6"/>
@@ -4451,7 +4481,7 @@
       <c r="I119" s="6"/>
       <c r="J119" s="6"/>
       <c r="K119" s="6" t="str">
-        <f t="shared" ref="K119:K182" si="10">IF(B119&lt;&gt;"",B119,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5624,7 +5654,7 @@
     <row r="173" ht="16.5" spans="1:11">
       <c r="A173" s="6"/>
       <c r="B173" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="B173:B236" si="11">IF(C173&lt;&gt;"",_xlfn.CONCAT(C173,"Category"),"")</f>
         <v/>
       </c>
       <c r="C173" s="6"/>
@@ -5646,7 +5676,7 @@
     <row r="174" ht="16.5" spans="1:11">
       <c r="A174" s="6"/>
       <c r="B174" s="6" t="str">
-        <f t="shared" ref="B174:B237" si="11">IF(C174&lt;&gt;"",_xlfn.CONCAT(C174,"Category"),"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="C174" s="6"/>
@@ -5827,7 +5857,7 @@
       </c>
       <c r="C182" s="6"/>
       <c r="D182" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="D182:D245" si="12">IF(C182&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E182" s="6"/>
@@ -5837,7 +5867,7 @@
       <c r="I182" s="6"/>
       <c r="J182" s="6"/>
       <c r="K182" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K182:K245" si="13">IF(B182&lt;&gt;"",B182,"")</f>
         <v/>
       </c>
     </row>
@@ -5849,7 +5879,7 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="str">
-        <f t="shared" ref="D183:D246" si="12">IF(C183&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="E183" s="6"/>
@@ -5859,7 +5889,7 @@
       <c r="I183" s="6"/>
       <c r="J183" s="6"/>
       <c r="K183" s="6" t="str">
-        <f t="shared" ref="K183:K246" si="13">IF(B183&lt;&gt;"",B183,"")</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
@@ -7032,7 +7062,7 @@
     <row r="237" ht="16.5" spans="1:11">
       <c r="A237" s="6"/>
       <c r="B237" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="B237:B300" si="14">IF(C237&lt;&gt;"",_xlfn.CONCAT(C237,"Category"),"")</f>
         <v/>
       </c>
       <c r="C237" s="6"/>
@@ -7054,7 +7084,7 @@
     <row r="238" ht="16.5" spans="1:11">
       <c r="A238" s="6"/>
       <c r="B238" s="6" t="str">
-        <f t="shared" ref="B238:B301" si="14">IF(C238&lt;&gt;"",_xlfn.CONCAT(C238,"Category"),"")</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="C238" s="6"/>
@@ -7235,7 +7265,7 @@
       </c>
       <c r="C246" s="6"/>
       <c r="D246" s="6" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="D246:D309" si="15">IF(C246&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E246" s="6"/>
@@ -7245,7 +7275,7 @@
       <c r="I246" s="6"/>
       <c r="J246" s="6"/>
       <c r="K246" s="6" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="K246:K309" si="16">IF(B246&lt;&gt;"",B246,"")</f>
         <v/>
       </c>
     </row>
@@ -7257,7 +7287,7 @@
       </c>
       <c r="C247" s="6"/>
       <c r="D247" s="6" t="str">
-        <f t="shared" ref="D247:D310" si="15">IF(C247&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="E247" s="6"/>
@@ -7267,7 +7297,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="6" t="str">
-        <f t="shared" ref="K247:K310" si="16">IF(B247&lt;&gt;"",B247,"")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -8440,7 +8470,7 @@
     <row r="301" ht="16.5" spans="1:11">
       <c r="A301" s="6"/>
       <c r="B301" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="B301:B364" si="17">IF(C301&lt;&gt;"",_xlfn.CONCAT(C301,"Category"),"")</f>
         <v/>
       </c>
       <c r="C301" s="6"/>
@@ -8462,7 +8492,7 @@
     <row r="302" ht="16.5" spans="1:11">
       <c r="A302" s="6"/>
       <c r="B302" s="6" t="str">
-        <f t="shared" ref="B302:B365" si="17">IF(C302&lt;&gt;"",_xlfn.CONCAT(C302,"Category"),"")</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="C302" s="6"/>
@@ -8643,7 +8673,7 @@
       </c>
       <c r="C310" s="6"/>
       <c r="D310" s="6" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="D310:D373" si="18">IF(C310&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E310" s="6"/>
@@ -8653,7 +8683,7 @@
       <c r="I310" s="6"/>
       <c r="J310" s="6"/>
       <c r="K310" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="K310:K373" si="19">IF(B310&lt;&gt;"",B310,"")</f>
         <v/>
       </c>
     </row>
@@ -8665,7 +8695,7 @@
       </c>
       <c r="C311" s="6"/>
       <c r="D311" s="6" t="str">
-        <f t="shared" ref="D311:D374" si="18">IF(C311&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="E311" s="6"/>
@@ -8675,7 +8705,7 @@
       <c r="I311" s="6"/>
       <c r="J311" s="6"/>
       <c r="K311" s="6" t="str">
-        <f t="shared" ref="K311:K374" si="19">IF(B311&lt;&gt;"",B311,"")</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -9848,7 +9878,7 @@
     <row r="365" ht="16.5" spans="1:11">
       <c r="A365" s="6"/>
       <c r="B365" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="B365:B428" si="20">IF(C365&lt;&gt;"",_xlfn.CONCAT(C365,"Category"),"")</f>
         <v/>
       </c>
       <c r="C365" s="6"/>
@@ -9870,7 +9900,7 @@
     <row r="366" ht="16.5" spans="1:11">
       <c r="A366" s="6"/>
       <c r="B366" s="6" t="str">
-        <f t="shared" ref="B366:B429" si="20">IF(C366&lt;&gt;"",_xlfn.CONCAT(C366,"Category"),"")</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="C366" s="6"/>
@@ -10051,7 +10081,7 @@
       </c>
       <c r="C374" s="6"/>
       <c r="D374" s="6" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D374:D437" si="21">IF(C374&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E374" s="6"/>
@@ -10061,7 +10091,7 @@
       <c r="I374" s="6"/>
       <c r="J374" s="6"/>
       <c r="K374" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="K374:K437" si="22">IF(B374&lt;&gt;"",B374,"")</f>
         <v/>
       </c>
     </row>
@@ -10073,7 +10103,7 @@
       </c>
       <c r="C375" s="6"/>
       <c r="D375" s="6" t="str">
-        <f t="shared" ref="D375:D438" si="21">IF(C375&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="E375" s="6"/>
@@ -10083,7 +10113,7 @@
       <c r="I375" s="6"/>
       <c r="J375" s="6"/>
       <c r="K375" s="6" t="str">
-        <f t="shared" ref="K375:K438" si="22">IF(B375&lt;&gt;"",B375,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
@@ -11256,7 +11286,7 @@
     <row r="429" ht="16.5" spans="1:11">
       <c r="A429" s="6"/>
       <c r="B429" s="6" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="B429:B492" si="23">IF(C429&lt;&gt;"",_xlfn.CONCAT(C429,"Category"),"")</f>
         <v/>
       </c>
       <c r="C429" s="6"/>
@@ -11278,7 +11308,7 @@
     <row r="430" ht="16.5" spans="1:11">
       <c r="A430" s="6"/>
       <c r="B430" s="6" t="str">
-        <f t="shared" ref="B430:B493" si="23">IF(C430&lt;&gt;"",_xlfn.CONCAT(C430,"Category"),"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="C430" s="6"/>
@@ -11459,7 +11489,7 @@
       </c>
       <c r="C438" s="6"/>
       <c r="D438" s="6" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="D438:D501" si="24">IF(C438&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E438" s="6"/>
@@ -11469,7 +11499,7 @@
       <c r="I438" s="6"/>
       <c r="J438" s="6"/>
       <c r="K438" s="6" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="K438:K501" si="25">IF(B438&lt;&gt;"",B438,"")</f>
         <v/>
       </c>
     </row>
@@ -11481,7 +11511,7 @@
       </c>
       <c r="C439" s="6"/>
       <c r="D439" s="6" t="str">
-        <f t="shared" ref="D439:D502" si="24">IF(C439&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="E439" s="6"/>
@@ -11491,7 +11521,7 @@
       <c r="I439" s="6"/>
       <c r="J439" s="6"/>
       <c r="K439" s="6" t="str">
-        <f t="shared" ref="K439:K502" si="25">IF(B439&lt;&gt;"",B439,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -12664,7 +12694,7 @@
     <row r="493" ht="16.5" spans="1:11">
       <c r="A493" s="6"/>
       <c r="B493" s="6" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="B493:B556" si="26">IF(C493&lt;&gt;"",_xlfn.CONCAT(C493,"Category"),"")</f>
         <v/>
       </c>
       <c r="C493" s="6"/>
@@ -12686,7 +12716,7 @@
     <row r="494" ht="16.5" spans="1:11">
       <c r="A494" s="6"/>
       <c r="B494" s="6" t="str">
-        <f t="shared" ref="B494:B557" si="26">IF(C494&lt;&gt;"",_xlfn.CONCAT(C494,"Category"),"")</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="C494" s="6"/>
@@ -12867,7 +12897,7 @@
       </c>
       <c r="C502" s="6"/>
       <c r="D502" s="6" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="D502:D565" si="27">IF(C502&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E502" s="6"/>
@@ -12877,7 +12907,7 @@
       <c r="I502" s="6"/>
       <c r="J502" s="6"/>
       <c r="K502" s="6" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="K502:K565" si="28">IF(B502&lt;&gt;"",B502,"")</f>
         <v/>
       </c>
     </row>
@@ -12889,7 +12919,7 @@
       </c>
       <c r="C503" s="6"/>
       <c r="D503" s="6" t="str">
-        <f t="shared" ref="D503:D566" si="27">IF(C503&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="E503" s="6"/>
@@ -12899,7 +12929,7 @@
       <c r="I503" s="6"/>
       <c r="J503" s="6"/>
       <c r="K503" s="6" t="str">
-        <f t="shared" ref="K503:K566" si="28">IF(B503&lt;&gt;"",B503,"")</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
     </row>
@@ -14072,7 +14102,7 @@
     <row r="557" ht="16.5" spans="1:11">
       <c r="A557" s="6"/>
       <c r="B557" s="6" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="B557:B620" si="29">IF(C557&lt;&gt;"",_xlfn.CONCAT(C557,"Category"),"")</f>
         <v/>
       </c>
       <c r="C557" s="6"/>
@@ -14094,7 +14124,7 @@
     <row r="558" ht="16.5" spans="1:11">
       <c r="A558" s="6"/>
       <c r="B558" s="6" t="str">
-        <f t="shared" ref="B558:B621" si="29">IF(C558&lt;&gt;"",_xlfn.CONCAT(C558,"Category"),"")</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="C558" s="6"/>
@@ -14275,7 +14305,7 @@
       </c>
       <c r="C566" s="6"/>
       <c r="D566" s="6" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="D566:D629" si="30">IF(C566&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E566" s="6"/>
@@ -14285,7 +14315,7 @@
       <c r="I566" s="6"/>
       <c r="J566" s="6"/>
       <c r="K566" s="6" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="K566:K629" si="31">IF(B566&lt;&gt;"",B566,"")</f>
         <v/>
       </c>
     </row>
@@ -14297,7 +14327,7 @@
       </c>
       <c r="C567" s="6"/>
       <c r="D567" s="6" t="str">
-        <f t="shared" ref="D567:D630" si="30">IF(C567&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="E567" s="6"/>
@@ -14307,7 +14337,7 @@
       <c r="I567" s="6"/>
       <c r="J567" s="6"/>
       <c r="K567" s="6" t="str">
-        <f t="shared" ref="K567:K630" si="31">IF(B567&lt;&gt;"",B567,"")</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
     </row>
@@ -15480,7 +15510,7 @@
     <row r="621" ht="16.5" spans="1:11">
       <c r="A621" s="6"/>
       <c r="B621" s="6" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="B621:B684" si="32">IF(C621&lt;&gt;"",_xlfn.CONCAT(C621,"Category"),"")</f>
         <v/>
       </c>
       <c r="C621" s="6"/>
@@ -15502,7 +15532,7 @@
     <row r="622" ht="16.5" spans="1:11">
       <c r="A622" s="6"/>
       <c r="B622" s="6" t="str">
-        <f t="shared" ref="B622:B685" si="32">IF(C622&lt;&gt;"",_xlfn.CONCAT(C622,"Category"),"")</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="C622" s="6"/>
@@ -15683,7 +15713,7 @@
       </c>
       <c r="C630" s="6"/>
       <c r="D630" s="6" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="D630:D693" si="33">IF(C630&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E630" s="6"/>
@@ -15693,7 +15723,7 @@
       <c r="I630" s="6"/>
       <c r="J630" s="6"/>
       <c r="K630" s="6" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="K630:K693" si="34">IF(B630&lt;&gt;"",B630,"")</f>
         <v/>
       </c>
     </row>
@@ -15705,7 +15735,7 @@
       </c>
       <c r="C631" s="6"/>
       <c r="D631" s="6" t="str">
-        <f t="shared" ref="D631:D694" si="33">IF(C631&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="E631" s="6"/>
@@ -15715,7 +15745,7 @@
       <c r="I631" s="6"/>
       <c r="J631" s="6"/>
       <c r="K631" s="6" t="str">
-        <f t="shared" ref="K631:K694" si="34">IF(B631&lt;&gt;"",B631,"")</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
     </row>
@@ -16888,7 +16918,7 @@
     <row r="685" ht="16.5" spans="1:11">
       <c r="A685" s="6"/>
       <c r="B685" s="6" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="B685:B748" si="35">IF(C685&lt;&gt;"",_xlfn.CONCAT(C685,"Category"),"")</f>
         <v/>
       </c>
       <c r="C685" s="6"/>
@@ -16910,7 +16940,7 @@
     <row r="686" ht="16.5" spans="1:11">
       <c r="A686" s="6"/>
       <c r="B686" s="6" t="str">
-        <f t="shared" ref="B686:B749" si="35">IF(C686&lt;&gt;"",_xlfn.CONCAT(C686,"Category"),"")</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="C686" s="6"/>
@@ -17091,7 +17121,7 @@
       </c>
       <c r="C694" s="6"/>
       <c r="D694" s="6" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="D694:D757" si="36">IF(C694&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E694" s="6"/>
@@ -17101,7 +17131,7 @@
       <c r="I694" s="6"/>
       <c r="J694" s="6"/>
       <c r="K694" s="6" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="K694:K757" si="37">IF(B694&lt;&gt;"",B694,"")</f>
         <v/>
       </c>
     </row>
@@ -17113,7 +17143,7 @@
       </c>
       <c r="C695" s="6"/>
       <c r="D695" s="6" t="str">
-        <f t="shared" ref="D695:D758" si="36">IF(C695&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="E695" s="6"/>
@@ -17123,7 +17153,7 @@
       <c r="I695" s="6"/>
       <c r="J695" s="6"/>
       <c r="K695" s="6" t="str">
-        <f t="shared" ref="K695:K758" si="37">IF(B695&lt;&gt;"",B695,"")</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
     </row>
@@ -18296,7 +18326,7 @@
     <row r="749" ht="16.5" spans="1:11">
       <c r="A749" s="6"/>
       <c r="B749" s="6" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="B749:B812" si="38">IF(C749&lt;&gt;"",_xlfn.CONCAT(C749,"Category"),"")</f>
         <v/>
       </c>
       <c r="C749" s="6"/>
@@ -18318,7 +18348,7 @@
     <row r="750" ht="16.5" spans="1:11">
       <c r="A750" s="6"/>
       <c r="B750" s="6" t="str">
-        <f t="shared" ref="B750:B813" si="38">IF(C750&lt;&gt;"",_xlfn.CONCAT(C750,"Category"),"")</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="C750" s="6"/>
@@ -18499,7 +18529,7 @@
       </c>
       <c r="C758" s="6"/>
       <c r="D758" s="6" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="D758:D821" si="39">IF(C758&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E758" s="6"/>
@@ -18509,7 +18539,7 @@
       <c r="I758" s="6"/>
       <c r="J758" s="6"/>
       <c r="K758" s="6" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="K758:K821" si="40">IF(B758&lt;&gt;"",B758,"")</f>
         <v/>
       </c>
     </row>
@@ -18521,7 +18551,7 @@
       </c>
       <c r="C759" s="6"/>
       <c r="D759" s="6" t="str">
-        <f t="shared" ref="D759:D822" si="39">IF(C759&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="E759" s="6"/>
@@ -18531,7 +18561,7 @@
       <c r="I759" s="6"/>
       <c r="J759" s="6"/>
       <c r="K759" s="6" t="str">
-        <f t="shared" ref="K759:K822" si="40">IF(B759&lt;&gt;"",B759,"")</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
     </row>
@@ -19704,7 +19734,7 @@
     <row r="813" ht="16.5" spans="1:11">
       <c r="A813" s="6"/>
       <c r="B813" s="6" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="B813:B876" si="41">IF(C813&lt;&gt;"",_xlfn.CONCAT(C813,"Category"),"")</f>
         <v/>
       </c>
       <c r="C813" s="6"/>
@@ -19726,7 +19756,7 @@
     <row r="814" ht="16.5" spans="1:11">
       <c r="A814" s="6"/>
       <c r="B814" s="6" t="str">
-        <f t="shared" ref="B814:B877" si="41">IF(C814&lt;&gt;"",_xlfn.CONCAT(C814,"Category"),"")</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="C814" s="6"/>
@@ -19907,7 +19937,7 @@
       </c>
       <c r="C822" s="6"/>
       <c r="D822" s="6" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="D822:D885" si="42">IF(C822&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E822" s="6"/>
@@ -19917,7 +19947,7 @@
       <c r="I822" s="6"/>
       <c r="J822" s="6"/>
       <c r="K822" s="6" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="K822:K885" si="43">IF(B822&lt;&gt;"",B822,"")</f>
         <v/>
       </c>
     </row>
@@ -19929,7 +19959,7 @@
       </c>
       <c r="C823" s="6"/>
       <c r="D823" s="6" t="str">
-        <f t="shared" ref="D823:D886" si="42">IF(C823&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="E823" s="6"/>
@@ -19939,7 +19969,7 @@
       <c r="I823" s="6"/>
       <c r="J823" s="6"/>
       <c r="K823" s="6" t="str">
-        <f t="shared" ref="K823:K886" si="43">IF(B823&lt;&gt;"",B823,"")</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
     </row>
@@ -21112,7 +21142,7 @@
     <row r="877" ht="16.5" spans="1:11">
       <c r="A877" s="6"/>
       <c r="B877" s="6" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="B877:B940" si="44">IF(C877&lt;&gt;"",_xlfn.CONCAT(C877,"Category"),"")</f>
         <v/>
       </c>
       <c r="C877" s="6"/>
@@ -21134,7 +21164,7 @@
     <row r="878" ht="16.5" spans="1:11">
       <c r="A878" s="6"/>
       <c r="B878" s="6" t="str">
-        <f t="shared" ref="B878:B941" si="44">IF(C878&lt;&gt;"",_xlfn.CONCAT(C878,"Category"),"")</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="C878" s="6"/>
@@ -21315,7 +21345,7 @@
       </c>
       <c r="C886" s="6"/>
       <c r="D886" s="6" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="D886:D949" si="45">IF(C886&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E886" s="6"/>
@@ -21325,7 +21355,7 @@
       <c r="I886" s="6"/>
       <c r="J886" s="6"/>
       <c r="K886" s="6" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="K886:K949" si="46">IF(B886&lt;&gt;"",B886,"")</f>
         <v/>
       </c>
     </row>
@@ -21337,7 +21367,7 @@
       </c>
       <c r="C887" s="6"/>
       <c r="D887" s="6" t="str">
-        <f t="shared" ref="D887:D950" si="45">IF(C887&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="E887" s="6"/>
@@ -21347,7 +21377,7 @@
       <c r="I887" s="6"/>
       <c r="J887" s="6"/>
       <c r="K887" s="6" t="str">
-        <f t="shared" ref="K887:K950" si="46">IF(B887&lt;&gt;"",B887,"")</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
@@ -22520,7 +22550,7 @@
     <row r="941" ht="16.5" spans="1:11">
       <c r="A941" s="6"/>
       <c r="B941" s="6" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="B941:B985" si="47">IF(C941&lt;&gt;"",_xlfn.CONCAT(C941,"Category"),"")</f>
         <v/>
       </c>
       <c r="C941" s="6"/>
@@ -22542,7 +22572,7 @@
     <row r="942" ht="16.5" spans="1:11">
       <c r="A942" s="6"/>
       <c r="B942" s="6" t="str">
-        <f t="shared" ref="B942:B986" si="47">IF(C942&lt;&gt;"",_xlfn.CONCAT(C942,"Category"),"")</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="C942" s="6"/>
@@ -22723,7 +22753,7 @@
       </c>
       <c r="C950" s="6"/>
       <c r="D950" s="6" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="D950:D985" si="48">IF(C950&lt;&gt;"",TRUE,"")</f>
         <v/>
       </c>
       <c r="E950" s="6"/>
@@ -22733,7 +22763,7 @@
       <c r="I950" s="6"/>
       <c r="J950" s="6"/>
       <c r="K950" s="6" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="K950:K985" si="49">IF(B950&lt;&gt;"",B950,"")</f>
         <v/>
       </c>
     </row>
@@ -22745,7 +22775,7 @@
       </c>
       <c r="C951" s="6"/>
       <c r="D951" s="6" t="str">
-        <f t="shared" ref="D951:D986" si="48">IF(C951&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="E951" s="6"/>
@@ -22755,7 +22785,7 @@
       <c r="I951" s="6"/>
       <c r="J951" s="6"/>
       <c r="K951" s="6" t="str">
-        <f t="shared" ref="K951:K986" si="49">IF(B951&lt;&gt;"",B951,"")</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
@@ -23503,28 +23533,6 @@
       <c r="I985" s="6"/>
       <c r="J985" s="6"/>
       <c r="K985" s="6" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-    </row>
-    <row r="986" ht="16.5" spans="1:11">
-      <c r="A986" s="6"/>
-      <c r="B986" s="6" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="C986" s="6"/>
-      <c r="D986" s="6" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E986" s="6"/>
-      <c r="F986" s="6"/>
-      <c r="G986" s="6"/>
-      <c r="H986" s="6"/>
-      <c r="I986" s="6"/>
-      <c r="J986" s="6"/>
-      <c r="K986" s="6" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="10455"/>
+    <workbookView windowWidth="23265" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="184">
   <si>
     <t>##var</t>
   </si>
@@ -570,6 +570,15 @@
   </si>
   <si>
     <t>怪物相关信息表</t>
+  </si>
+  <si>
+    <t>TrapConfig</t>
+  </si>
+  <si>
+    <t>TrapConfig.xlsx</t>
+  </si>
+  <si>
+    <t>陷阱配置表</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1550,7 @@
   <dimension ref="A1:K985"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2971,22 +2980,28 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="str">
         <f t="shared" ref="B51:B108" si="5">IF(C51&lt;&gt;"",_xlfn.CONCAT(C51,"Category"),"")</f>
-        <v/>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6" t="str">
+        <v>TrapConfigCategory</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D51" s="6" t="b">
         <f>IF(C51&lt;&gt;"",TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="E51" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>182</v>
+      </c>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>183</v>
+      </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="str">
         <f>IF(B51&lt;&gt;"",B51,"")</f>
-        <v/>
+        <v>TrapConfigCategory</v>
       </c>
     </row>
     <row r="52" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455"/>
+    <workbookView windowWidth="25350" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="190">
   <si>
     <t>##var</t>
   </si>
@@ -579,6 +579,24 @@
   </si>
   <si>
     <t>陷阱配置表</t>
+  </si>
+  <si>
+    <t>BuffClientConfig</t>
+  </si>
+  <si>
+    <t>BuffClientConfig.xlsx</t>
+  </si>
+  <si>
+    <t>客户端Buff配置</t>
+  </si>
+  <si>
+    <t>CastClientConfig</t>
+  </si>
+  <si>
+    <t>CastClientConfig.xlsx</t>
+  </si>
+  <si>
+    <t>客户端技能配置</t>
   </si>
 </sst>
 </file>
@@ -1549,8 +1567,10 @@
   <sheetPr/>
   <dimension ref="A1:K985"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2839,7 +2859,7 @@
     <row r="46" ht="16.5" spans="1:11">
       <c r="A46" s="6"/>
       <c r="B46" s="6" t="str">
-        <f>IF(C46&lt;&gt;"",_xlfn.CONCAT(C46,"Category"),"")</f>
+        <f t="shared" si="4"/>
         <v>BulletConfigCategory</v>
       </c>
       <c r="C46" s="6" t="s">
@@ -2867,7 +2887,7 @@
     <row r="47" ht="16.5" spans="1:11">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="str">
-        <f>IF(C47&lt;&gt;"",_xlfn.CONCAT(C47,"Category"),"")</f>
+        <f t="shared" si="4"/>
         <v>SceneMonsterConfigCategory</v>
       </c>
       <c r="C47" s="6" t="s">
@@ -2895,7 +2915,7 @@
     <row r="48" ht="16.5" spans="1:11">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="str">
-        <f>IF(C48&lt;&gt;"",_xlfn.CONCAT(C48,"Category"),"")</f>
+        <f t="shared" si="4"/>
         <v>CastConfigCategory</v>
       </c>
       <c r="C48" s="6" t="s">
@@ -2923,7 +2943,7 @@
     <row r="49" ht="16.5" spans="1:11">
       <c r="A49" s="6"/>
       <c r="B49" s="6" t="str">
-        <f>IF(C49&lt;&gt;"",_xlfn.CONCAT(C49,"Category"),"")</f>
+        <f t="shared" si="4"/>
         <v>SceneNpcConfigCategory</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -2951,7 +2971,7 @@
     <row r="50" ht="16.5" spans="1:11">
       <c r="A50" s="6"/>
       <c r="B50" s="6" t="str">
-        <f>IF(C50&lt;&gt;"",_xlfn.CONCAT(C50,"Category"),"")</f>
+        <f t="shared" si="4"/>
         <v>MonsterConfigCategory</v>
       </c>
       <c r="C50" s="6" t="s">
@@ -2986,7 +3006,7 @@
         <v>181</v>
       </c>
       <c r="D51" s="6" t="b">
-        <f>IF(C51&lt;&gt;"",TRUE,"")</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E51" s="6" t="s">
@@ -3000,7 +3020,7 @@
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6" t="str">
-        <f>IF(B51&lt;&gt;"",B51,"")</f>
+        <f t="shared" si="2"/>
         <v>TrapConfigCategory</v>
       </c>
     </row>
@@ -3008,44 +3028,60 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6" t="str">
-        <f>IF(C52&lt;&gt;"",TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="E52" s="6"/>
+        <v>BuffClientConfigCategory</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D52" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>185</v>
+      </c>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
+      <c r="H52" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>186</v>
+      </c>
       <c r="J52" s="6"/>
       <c r="K52" s="6" t="str">
-        <f>IF(B52&lt;&gt;"",B52,"")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>BuffClientConfigCategory</v>
       </c>
     </row>
     <row r="53" ht="16.5" spans="1:11">
       <c r="A53" s="6"/>
       <c r="B53" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6" t="str">
-        <f>IF(C53&lt;&gt;"",TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="E53" s="6"/>
+        <v>CastClientConfigCategory</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D53" s="6" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>188</v>
+      </c>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="J53" s="6"/>
       <c r="K53" s="6" t="str">
-        <f>IF(B53&lt;&gt;"",B53,"")</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>CastClientConfigCategory</v>
       </c>
     </row>
     <row r="54" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455"/>
+    <workbookView windowWidth="25590" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
   <si>
     <t>##var</t>
   </si>
@@ -597,6 +597,15 @@
   </si>
   <si>
     <t>客户端技能配置</t>
+  </si>
+  <si>
+    <t>AINodeConfig</t>
+  </si>
+  <si>
+    <t>AINodeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>AI节点配置</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1579,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3088,22 +3097,28 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6" t="str">
+        <v>AINodeConfigCategory</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D54" s="6" t="b">
         <f t="shared" ref="D54:D117" si="6">IF(C54&lt;&gt;"",TRUE,"")</f>
-        <v/>
-      </c>
-      <c r="E54" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>191</v>
+      </c>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>192</v>
+      </c>
       <c r="J54" s="6"/>
       <c r="K54" s="6" t="str">
         <f t="shared" ref="K54:K117" si="7">IF(B54&lt;&gt;"",B54,"")</f>
-        <v/>
+        <v>AINodeConfigCategory</v>
       </c>
     </row>
     <row r="55" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="199">
   <si>
     <t>##var</t>
   </si>
@@ -606,6 +606,24 @@
   </si>
   <si>
     <t>AI节点配置</t>
+  </si>
+  <si>
+    <t>SoulConfig</t>
+  </si>
+  <si>
+    <t>SoulConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵信息配置</t>
+  </si>
+  <si>
+    <t>SoulRuneConfig</t>
+  </si>
+  <si>
+    <t>SoulRuneConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵符文配置</t>
   </si>
 </sst>
 </file>
@@ -1579,7 +1597,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <selection pane="bottomLeft" activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3125,44 +3143,56 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6" t="str">
+        <v>SoulConfigCategory</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="6" t="b">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E55" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>194</v>
+      </c>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SoulConfigCategory</v>
       </c>
     </row>
     <row r="56" ht="16.5" spans="1:11">
       <c r="A56" s="6"/>
       <c r="B56" s="6" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6" t="str">
+        <v>SoulRuneConfigCategory</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="6" t="b">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="E56" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>197</v>
+      </c>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>198</v>
+      </c>
       <c r="J56" s="6"/>
       <c r="K56" s="6" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>SoulRuneConfigCategory</v>
       </c>
     </row>
     <row r="57" ht="16.5" spans="1:11">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="216">
   <si>
     <t>##var</t>
   </si>
@@ -651,6 +651,30 @@
   </si>
   <si>
     <t>SoulStarConfigCategory</t>
+  </si>
+  <si>
+    <t>SoulTalentConfig</t>
+  </si>
+  <si>
+    <t>SoulTalentConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵天赋配置</t>
+  </si>
+  <si>
+    <t>SoulTalentConfigCategory</t>
+  </si>
+  <si>
+    <t>SoulTalentActionConfig</t>
+  </si>
+  <si>
+    <t>SoulTalentActionConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵天赋行为配置</t>
+  </si>
+  <si>
+    <t>SoulTalentActionConfigCategory</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1645,10 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3272,24 +3296,48 @@
         <v>207</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:11">
       <c r="B59" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D59" s="6" t="str">
+        <v>SoulTalentConfigCategory</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D59" s="6" t="b">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
       <c r="B60" s="6" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D60" s="6" t="str">
+        <v>SoulTalentActionConfigCategory</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D60" s="6" t="b">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="61" spans="2:4">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="219">
   <si>
     <t>##var</t>
   </si>
@@ -675,6 +675,15 @@
   </si>
   <si>
     <t>SoulTalentActionConfigCategory</t>
+  </si>
+  <si>
+    <t>SevenDayConfig</t>
+  </si>
+  <si>
+    <t>SevenDayConfig.xlsx</t>
+  </si>
+  <si>
+    <t>7日奖励配置</t>
   </si>
 </sst>
 </file>
@@ -1302,18 +1311,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1645,10 +1645,10 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K61" sqref="K61"/>
+      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1668,1618 +1668,1565 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:11">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="115.5" spans="1:11">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="str">
+    <row r="4" spans="2:11">
+      <c r="B4" s="3" t="str">
         <f t="shared" ref="B4:B6" si="0">IF(C4&lt;&gt;"",_xlfn.CONCAT(C4,"Category"),"")</f>
         <v>AIConfigCategory</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="6" t="b">
-        <f t="shared" ref="D4:D55" si="1">IF(C4&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="3" t="b">
+        <f t="shared" ref="D4:D57" si="1">IF(C4&lt;&gt;"",TRUE,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6" t="str">
-        <f t="shared" ref="K4:K55" si="2">IF(B4&lt;&gt;"",B4,"")</f>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="str">
+        <f t="shared" ref="K4:K56" si="2">IF(B4&lt;&gt;"",B4,"")</f>
         <v>AIConfigCategory</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6" t="str">
+    <row r="5" spans="2:11">
+      <c r="B5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>UnitConfigCategory</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="str">
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="str">
         <f t="shared" si="2"/>
         <v>UnitConfigCategory</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="str">
+    <row r="6" spans="2:11">
+      <c r="B6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>ResourceConfigCategory</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6" t="str">
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ResourceConfigCategory</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:11">
+      <c r="B7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6" t="str">
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>UIConfigCategory</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="2:11">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6" t="str">
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="str">
         <f t="shared" si="2"/>
         <v>UIGroupConfigCategory</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:11">
+      <c r="B9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6" t="str">
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>UIGroupSubConfigCategory</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:11">
+      <c r="B10" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6" t="str">
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ExpConfigCategory</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:11">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6" t="str">
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="str">
         <f t="shared" si="2"/>
         <v>RandomNameConfigCategory</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:11">
+      <c r="B12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6" t="str">
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="str">
         <f t="shared" si="2"/>
         <v>GlobalDataConfigCategory</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:11">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6" t="str">
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="str">
         <f t="shared" si="2"/>
         <v>TaskConfigCategory</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
+    <row r="14" spans="2:11">
+      <c r="B14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6" t="str">
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="str">
         <f t="shared" si="2"/>
         <v>RewardConfigCategory</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6" t="s">
+    <row r="15" spans="2:11">
+      <c r="B15" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6" t="str">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ItemConfigCategory</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6" t="s">
+    <row r="16" spans="2:11">
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D16" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6" t="s">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="str">
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SubTaskConfigCategory</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
+    <row r="17" spans="2:11">
+      <c r="B17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6" t="s">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6" t="str">
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="str">
         <f t="shared" si="2"/>
         <v>PropertyConfigCategory</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:11">
+      <c r="B18" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="D18" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6" t="s">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6" t="str">
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BuffConfigCategory</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:11">
+      <c r="B19" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="D19" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="str">
+    <row r="20" spans="2:11">
+      <c r="B20" s="3" t="str">
         <f t="shared" ref="B20:B29" si="3">IF(C20&lt;&gt;"",_xlfn.CONCAT(C20,"Category"),"")</f>
         <v>SkillConfigCategory</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D20" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="D20" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6" t="s">
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6" t="str">
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SkillConfigCategory</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="str">
+    <row r="21" spans="2:11">
+      <c r="B21" s="3" t="str">
         <f t="shared" si="3"/>
         <v>AchievementConfigCategory</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D21" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="D21" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6" t="str">
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="str">
         <f t="shared" si="2"/>
         <v>AchievementConfigCategory</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="str">
+    <row r="22" spans="2:11">
+      <c r="B22" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SystemInfoConfigCategory</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D22" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6" t="str">
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SystemInfoConfigCategory</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="str">
+    <row r="23" spans="2:11">
+      <c r="B23" s="3" t="str">
         <f t="shared" si="3"/>
         <v>SceneConfigCategory</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6" t="s">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6" t="str">
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SceneConfigCategory</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="str">
+    <row r="24" spans="2:11">
+      <c r="B24" s="3" t="str">
         <f t="shared" si="3"/>
         <v>DungeonConfigCategory</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D24" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="D24" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6" t="s">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6" t="str">
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="str">
         <f t="shared" si="2"/>
         <v>DungeonConfigCategory</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="str">
+    <row r="25" spans="2:11">
+      <c r="B25" s="3" t="str">
         <f t="shared" si="3"/>
         <v>BuildingConfigCategory</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D25" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6" t="s">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6" t="str">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BuildingConfigCategory</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="str">
+    <row r="26" spans="2:11">
+      <c r="B26" s="3" t="str">
         <f t="shared" si="3"/>
         <v>AvocationConfigCategory</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="D26" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6" t="s">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6" t="str">
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="str">
         <f t="shared" si="2"/>
         <v>AvocationConfigCategory</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="str">
+    <row r="27" spans="2:11">
+      <c r="B27" s="3" t="str">
         <f t="shared" si="3"/>
         <v>EquipmentConfigCategory</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D27" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6" t="str">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EquipmentConfigCategory</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6" t="str">
+    <row r="28" spans="2:11">
+      <c r="B28" s="3" t="str">
         <f t="shared" si="3"/>
         <v>PropertyRandomConfigCategory</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6" t="s">
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6" t="str">
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="str">
         <f t="shared" si="2"/>
         <v>PropertyRandomConfigCategory</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6" t="str">
+    <row r="29" spans="2:11">
+      <c r="B29" s="3" t="str">
         <f t="shared" si="3"/>
         <v>CreateRoleConfigCategory</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D29" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E29" s="6" t="s">
+      <c r="D29" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6" t="str">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>CreateRoleConfigCategory</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="str">
+    <row r="30" spans="2:11">
+      <c r="B30" s="3" t="str">
         <f t="shared" ref="B30:B55" si="4">IF(C30&lt;&gt;"",_xlfn.CONCAT(C30,"Category"),"")</f>
         <v>TalentConfigCategory</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D30" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="D30" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6" t="s">
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6" t="str">
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>TalentConfigCategory</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6" t="str">
+    <row r="31" spans="2:11">
+      <c r="B31" s="3" t="str">
         <f t="shared" si="4"/>
         <v>GemConfigCategory</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="D31" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E31" s="6" t="s">
+      <c r="D31" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6" t="s">
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6" t="str">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>GemConfigCategory</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6" t="str">
+    <row r="32" spans="2:11">
+      <c r="B32" s="3" t="str">
         <f t="shared" si="4"/>
         <v>EquipmentHoleConfigCategory</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6" t="s">
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6" t="str">
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>EquipmentHoleConfigCategory</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6" t="str">
+    <row r="33" spans="2:11">
+      <c r="B33" s="3" t="str">
         <f t="shared" si="4"/>
         <v>PropertyScoreConfigCategory</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E33" s="6" t="s">
+      <c r="D33" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6" t="s">
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6" t="str">
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="str">
         <f t="shared" si="2"/>
         <v>PropertyScoreConfigCategory</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="str">
+    <row r="34" spans="2:11">
+      <c r="B34" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ShopConfigCategory</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6" t="str">
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ShopConfigCategory</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6" t="str">
+    <row r="35" spans="2:11">
+      <c r="B35" s="3" t="str">
         <f t="shared" si="4"/>
         <v>SignConfigCategory</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D35" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E35" s="6" t="s">
+      <c r="D35" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6" t="s">
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6" t="str">
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SignConfigCategory</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6" t="str">
+    <row r="36" spans="2:11">
+      <c r="B36" s="3" t="str">
         <f t="shared" si="4"/>
         <v>TransmogrificationConfigCategory</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D36" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6" t="s">
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6" t="str">
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="str">
         <f t="shared" si="2"/>
         <v>TransmogrificationConfigCategory</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6" t="str">
+    <row r="37" spans="2:11">
+      <c r="B37" s="3" t="str">
         <f t="shared" si="4"/>
         <v>DropConfigCategory</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D37" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E37" s="6" t="s">
+      <c r="D37" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6" t="s">
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6" t="str">
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="str">
         <f t="shared" si="2"/>
         <v>DropConfigCategory</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6" t="str">
+    <row r="38" spans="2:11">
+      <c r="B38" s="3" t="str">
         <f t="shared" si="4"/>
         <v>BornSceneConfigCategory</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6" t="s">
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6" t="str">
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BornSceneConfigCategory</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6" t="str">
+    <row r="39" spans="2:11">
+      <c r="B39" s="3" t="str">
         <f t="shared" si="4"/>
         <v>MountConfigCategory</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D39" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E39" s="6" t="s">
+      <c r="D39" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6" t="s">
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6" t="str">
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="str">
         <f t="shared" si="2"/>
         <v>MountConfigCategory</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="str">
+    <row r="40" spans="2:11">
+      <c r="B40" s="3" t="str">
         <f t="shared" si="4"/>
         <v>OfflineIncomeConfigCategory</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6" t="str">
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="str">
         <f t="shared" si="2"/>
         <v>OfflineIncomeConfigCategory</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6" t="str">
+    <row r="41" spans="2:11">
+      <c r="B41" s="3" t="str">
         <f t="shared" si="4"/>
         <v>VipConfigCategory</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6" t="s">
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6" t="str">
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="str">
         <f t="shared" si="2"/>
         <v>VipConfigCategory</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6" t="str">
+    <row r="42" spans="2:11">
+      <c r="B42" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ItemPackConfigCategory</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6" t="s">
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6" t="str">
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ItemPackConfigCategory</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6" t="str">
+    <row r="43" spans="2:11">
+      <c r="B43" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ChargeConfigCategory</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6" t="s">
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6" t="str">
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ChargeConfigCategory</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6" t="str">
+    <row r="44" spans="2:11">
+      <c r="B44" s="3" t="str">
         <f t="shared" si="4"/>
         <v>LotteryConfigCategory</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D44" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6" t="s">
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6" t="str">
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="str">
         <f t="shared" si="2"/>
         <v>LotteryConfigCategory</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6" t="str">
+    <row r="45" spans="2:11">
+      <c r="B45" s="3" t="str">
         <f t="shared" si="4"/>
         <v>ActionConfigCategory</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D45" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E45" s="6" t="s">
+      <c r="D45" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6" t="s">
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6" t="str">
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="str">
         <f t="shared" si="2"/>
         <v>ActionConfigCategory</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6" t="str">
+    <row r="46" spans="2:11">
+      <c r="B46" s="3" t="str">
         <f t="shared" si="4"/>
         <v>BulletConfigCategory</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D46" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E46" s="6" t="s">
+      <c r="D46" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6" t="s">
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6" t="str">
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BulletConfigCategory</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6" t="str">
+    <row r="47" spans="2:11">
+      <c r="B47" s="3" t="str">
         <f t="shared" si="4"/>
         <v>SceneMonsterConfigCategory</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E47" s="6" t="s">
+      <c r="D47" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6" t="s">
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6" t="str">
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SceneMonsterConfigCategory</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6" t="str">
+    <row r="48" spans="2:11">
+      <c r="B48" s="3" t="str">
         <f t="shared" si="4"/>
         <v>CastConfigCategory</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D48" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E48" s="6" t="s">
+      <c r="D48" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6" t="s">
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6" t="str">
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="str">
         <f t="shared" si="2"/>
         <v>CastConfigCategory</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6" t="str">
+    <row r="49" spans="2:11">
+      <c r="B49" s="3" t="str">
         <f t="shared" si="4"/>
         <v>SceneNpcConfigCategory</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D49" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E49" s="6" t="s">
+      <c r="D49" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6" t="s">
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6" t="str">
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SceneNpcConfigCategory</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6" t="str">
+    <row r="50" spans="2:11">
+      <c r="B50" s="3" t="str">
         <f t="shared" si="4"/>
         <v>MonsterConfigCategory</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D50" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E50" s="6" t="s">
+      <c r="D50" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6" t="s">
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6" t="str">
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="str">
         <f t="shared" si="2"/>
         <v>MonsterConfigCategory</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6" t="str">
+    <row r="51" spans="2:11">
+      <c r="B51" s="3" t="str">
         <f t="shared" ref="B51:B108" si="5">IF(C51&lt;&gt;"",_xlfn.CONCAT(C51,"Category"),"")</f>
         <v>TrapConfigCategory</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D51" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E51" s="6" t="s">
+      <c r="D51" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6" t="s">
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6" t="str">
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="str">
         <f t="shared" si="2"/>
         <v>TrapConfigCategory</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6" t="str">
+    <row r="52" spans="2:11">
+      <c r="B52" s="3" t="str">
         <f t="shared" si="5"/>
         <v>BuffClientConfigCategory</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="D52" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E52" s="6" t="s">
+      <c r="D52" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6" t="s">
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6" t="str">
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="str">
         <f t="shared" si="2"/>
         <v>BuffClientConfigCategory</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6" t="str">
+    <row r="53" spans="2:11">
+      <c r="B53" s="3" t="str">
         <f t="shared" si="5"/>
         <v>CastClientConfigCategory</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D53" s="6" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E53" s="6" t="s">
+      <c r="D53" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6" t="s">
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="I53" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6" t="str">
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="str">
         <f t="shared" si="2"/>
         <v>CastClientConfigCategory</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6" t="str">
+    <row r="54" spans="2:11">
+      <c r="B54" s="3" t="str">
         <f t="shared" si="5"/>
         <v>AINodeConfigCategory</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D54" s="6" t="b">
-        <f>IF(C54&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E54" s="6" t="s">
+      <c r="D54" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6" t="s">
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6" t="str">
-        <f>IF(B54&lt;&gt;"",B54,"")</f>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>AINodeConfigCategory</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6" t="str">
+    <row r="55" spans="2:11">
+      <c r="B55" s="3" t="str">
         <f t="shared" si="5"/>
         <v>SoulConfigCategory</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D55" s="6" t="b">
-        <f>IF(C55&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E55" s="6" t="s">
+      <c r="D55" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6" t="s">
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6" t="str">
-        <f>IF(B55&lt;&gt;"",B55,"")</f>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>SoulConfigCategory</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6" t="str">
+    <row r="56" spans="2:11">
+      <c r="B56" s="3" t="str">
         <f t="shared" si="5"/>
         <v>SoulRuneConfigCategory</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D56" s="6" t="b">
-        <f>IF(C56&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="D56" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6" t="s">
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6" t="str">
-        <f>IF(B56&lt;&gt;"",B56,"")</f>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>SoulRuneConfigCategory</v>
       </c>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="6" t="str">
-        <f>IF(C57&lt;&gt;"",_xlfn.CONCAT(C57,"Category"),"")</f>
+      <c r="B57" s="3" t="str">
+        <f t="shared" si="5"/>
         <v>SoulLevelConfigCategory</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="D57" s="6" t="b">
-        <f>IF(C57&lt;&gt;"",TRUE,"")</f>
-        <v>1</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="D57" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>200</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="K57" s="6" t="s">
+      <c r="K57" s="3" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="6" t="str">
+      <c r="B58" s="3" t="str">
         <f t="shared" ref="B58:B68" si="6">IF(C58&lt;&gt;"",_xlfn.CONCAT(C58,"Category"),"")</f>
         <v>SoulStarConfigCategory</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D58" s="6" t="b">
+      <c r="D58" s="3" t="b">
         <f t="shared" ref="D58:D67" si="7">IF(C58&lt;&gt;"",TRUE,"")</f>
         <v>1</v>
       </c>
@@ -3297,14 +3244,14 @@
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="6" t="str">
+      <c r="B59" s="3" t="str">
         <f t="shared" si="6"/>
         <v>SoulTalentConfigCategory</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="D59" s="6" t="b">
+      <c r="D59" s="3" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3319,14 +3266,14 @@
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="6" t="str">
+      <c r="B60" s="3" t="str">
         <f t="shared" si="6"/>
         <v>SoulTalentActionConfigCategory</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="D60" s="6" t="b">
+      <c r="D60" s="3" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
@@ -3340,78 +3287,91 @@
         <v>215</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
-      <c r="B61" s="6" t="str">
+    <row r="61" spans="2:11">
+      <c r="B61" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>SevenDayConfigCategory</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D61" s="3" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K61" s="3" t="str">
+        <f>_xlfn.CONCAT(C61,"Category")</f>
+        <v>SevenDayConfigCategory</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D61" s="6" t="str">
+      <c r="D62" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="2:4">
-      <c r="B62" s="6" t="str">
+    <row r="63" spans="2:4">
+      <c r="B63" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D62" s="6" t="str">
+      <c r="D63" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="2:4">
-      <c r="B63" s="6" t="str">
+    <row r="64" spans="2:4">
+      <c r="B64" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D63" s="6" t="str">
+      <c r="D64" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="2:4">
-      <c r="B64" s="6" t="str">
+    <row r="65" spans="2:4">
+      <c r="B65" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D64" s="6" t="str">
+      <c r="D65" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="2:4">
-      <c r="B65" s="6" t="str">
+    <row r="66" spans="2:4">
+      <c r="B66" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D65" s="6" t="str">
+      <c r="D66" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="2:4">
-      <c r="B66" s="6" t="str">
+    <row r="67" spans="2:4">
+      <c r="B67" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="D66" s="6" t="str">
+      <c r="D67" s="3" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="2:4">
-      <c r="B67" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D67" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="6" t="str">
+      <c r="B68" s="3" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="10740"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="223">
   <si>
     <t>##var</t>
   </si>
@@ -684,6 +684,18 @@
   </si>
   <si>
     <t>7日奖励配置</t>
+  </si>
+  <si>
+    <t>ItemUseConfig</t>
+  </si>
+  <si>
+    <t>ItemUseConfig.xlsx</t>
+  </si>
+  <si>
+    <t>道具使用配置</t>
+  </si>
+  <si>
+    <t>ItemUseConfigCategory</t>
   </si>
 </sst>
 </file>
@@ -1645,10 +1657,10 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K62" sqref="K62"/>
+      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3310,14 +3322,26 @@
         <v>SevenDayConfigCategory</v>
       </c>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:11">
       <c r="B62" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D62" s="3" t="str">
+        <v>ItemUseConfigCategory</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D62" s="3" t="b">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="63" spans="2:4">

--- a/Unity/Assets/Config/Excel/__tables__.xlsx
+++ b/Unity/Assets/Config/Excel/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26310" windowHeight="11655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="244">
   <si>
     <t>##var</t>
   </si>
@@ -696,6 +696,69 @@
   </si>
   <si>
     <t>ItemUseConfigCategory</t>
+  </si>
+  <si>
+    <t>BattleAttributeConfig</t>
+  </si>
+  <si>
+    <t>BattleAttributeConfig.xlsx</t>
+  </si>
+  <si>
+    <t>Id+DestAttribute</t>
+  </si>
+  <si>
+    <t>战斗属性克制</t>
+  </si>
+  <si>
+    <t>BattleAttributeConfigCategory</t>
+  </si>
+  <si>
+    <t>BattlePVEConfig</t>
+  </si>
+  <si>
+    <t>BattlePVEConfig.xlsx</t>
+  </si>
+  <si>
+    <t>PVE战斗配置</t>
+  </si>
+  <si>
+    <t>BattlePVEConfigCategory</t>
+  </si>
+  <si>
+    <t>SoulCastConfig</t>
+  </si>
+  <si>
+    <t>SoulCastConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵-技能配置</t>
+  </si>
+  <si>
+    <t>SoulCastConfigCategory</t>
+  </si>
+  <si>
+    <t>SoulBuffConfig</t>
+  </si>
+  <si>
+    <t>SoulBuffConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵-buff配置</t>
+  </si>
+  <si>
+    <t>SoulBuffConfigCategory</t>
+  </si>
+  <si>
+    <t>SoulActionConfig</t>
+  </si>
+  <si>
+    <t>SoulActionConfig.xlsx</t>
+  </si>
+  <si>
+    <t>灵-行为配置</t>
+  </si>
+  <si>
+    <t>SoulActionConfigCategory</t>
   </si>
 </sst>
 </file>
@@ -1657,10 +1720,10 @@
   <sheetPr/>
   <dimension ref="A1:K68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K63" sqref="K63"/>
+      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3344,54 +3407,117 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:11">
       <c r="B63" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D63" s="3" t="str">
+        <v>BattleAttributeConfigCategory</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D63" s="3" t="b">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11">
       <c r="B64" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D64" s="3" t="str">
+        <v>BattlePVEConfigCategory</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D64" s="3" t="b">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11">
       <c r="B65" s="3" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D65" s="3" t="str">
+        <f>IF(C65&lt;&gt;"",_xlfn.CONCAT(C65,"Category"),"")</f>
+        <v>SoulCastConfigCategory</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="3" t="b">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11">
       <c r="B66" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D66" s="3" t="str">
+        <v>SoulBuffConfigCategory</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D66" s="3" t="b">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
+        <v>1</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11">
       <c r="B67" s="3" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="D67" s="3" t="str">
+        <v>SoulActionConfigCategory</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="3" t="b">
         <f t="shared" si="7"/>
-        <v/>
+        <v>1</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="2:2">
